--- a/VIDA2/data/RECIFE.xlsx
+++ b/VIDA2/data/RECIFE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>attacked</t>
+          <t>females</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>denounce</t>
+          <t>Attacks per female</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>females</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Attacks per female</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Denounces per female</t>
         </is>
@@ -469,22 +459,18 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>2600054003001</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2600054003001</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7835671342685371</v>
+        <v>6.677354709418838</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2925851703406814</v>
+        <v>119.0354902278749</v>
       </c>
       <c r="E2" t="n">
-        <v>6.677354709418838</v>
-      </c>
-      <c r="F2" t="n">
-        <v>119.0354902278749</v>
-      </c>
-      <c r="G2" t="n">
         <v>43.44772628840764</v>
       </c>
     </row>
@@ -492,22 +478,18 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2600054003002</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2600054003002</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8537074148296593</v>
+        <v>6.913827655310621</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3086172344689378</v>
+        <v>135.6456502749087</v>
       </c>
       <c r="E3" t="n">
-        <v>6.913827655310621</v>
-      </c>
-      <c r="F3" t="n">
-        <v>135.6456502749087</v>
-      </c>
-      <c r="G3" t="n">
         <v>50.38461872129206</v>
       </c>
     </row>
@@ -515,22 +497,18 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2600054003003</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2600054003003</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>0.908</v>
+        <v>7.72</v>
       </c>
       <c r="D4" t="n">
-        <v>0.312</v>
+        <v>124.0815767565766</v>
       </c>
       <c r="E4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="F4" t="n">
-        <v>124.0815767565766</v>
-      </c>
-      <c r="G4" t="n">
         <v>43.57178377178376</v>
       </c>
     </row>
@@ -538,22 +516,18 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>2600054003004</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2600054003004</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>1.476</v>
+        <v>11.514</v>
       </c>
       <c r="D5" t="n">
-        <v>0.552</v>
+        <v>132.8714708636064</v>
       </c>
       <c r="E5" t="n">
-        <v>11.514</v>
-      </c>
-      <c r="F5" t="n">
-        <v>132.8714708636064</v>
-      </c>
-      <c r="G5" t="n">
         <v>49.46564923425535</v>
       </c>
     </row>
@@ -561,22 +535,18 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>2600054003005</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2600054003005</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1.494</v>
+        <v>11.778</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54</v>
+        <v>131.8556608080602</v>
       </c>
       <c r="E6" t="n">
-        <v>11.778</v>
-      </c>
-      <c r="F6" t="n">
-        <v>131.8556608080602</v>
-      </c>
-      <c r="G6" t="n">
         <v>46.56798938935157</v>
       </c>
     </row>
@@ -584,22 +554,18 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>2602902003001</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2602902003001</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>0.794</v>
+        <v>6.972</v>
       </c>
       <c r="D7" t="n">
-        <v>0.29</v>
+        <v>120.588184038184</v>
       </c>
       <c r="E7" t="n">
-        <v>6.972</v>
-      </c>
-      <c r="F7" t="n">
-        <v>120.588184038184</v>
-      </c>
-      <c r="G7" t="n">
         <v>46.28927183927185</v>
       </c>
     </row>
@@ -607,22 +573,18 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>2602902003002</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2602902003002</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7955911823647295</v>
+        <v>6.1062124248497</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3026052104208417</v>
+        <v>137.0729915820096</v>
       </c>
       <c r="E8" t="n">
-        <v>6.1062124248497</v>
-      </c>
-      <c r="F8" t="n">
-        <v>137.0729915820096</v>
-      </c>
-      <c r="G8" t="n">
         <v>53.28955168634526</v>
       </c>
     </row>
@@ -630,22 +592,18 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>2602902003003</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2602902003003</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>0.896</v>
+        <v>7.354</v>
       </c>
       <c r="D9" t="n">
-        <v>0.332</v>
+        <v>129.0300976800976</v>
       </c>
       <c r="E9" t="n">
-        <v>7.354</v>
-      </c>
-      <c r="F9" t="n">
-        <v>129.0300976800976</v>
-      </c>
-      <c r="G9" t="n">
         <v>45.91102786102783</v>
       </c>
     </row>
@@ -653,22 +611,18 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>2602902003004</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2602902003004</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>2.766</v>
+        <v>22.334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.984</v>
+        <v>126.3138640759426</v>
       </c>
       <c r="E10" t="n">
-        <v>22.334</v>
-      </c>
-      <c r="F10" t="n">
-        <v>126.3138640759426</v>
-      </c>
-      <c r="G10" t="n">
         <v>45.56833424062486</v>
       </c>
     </row>
@@ -676,22 +630,18 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>2602902003005</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2602902003005</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>0.948</v>
+        <v>7.68</v>
       </c>
       <c r="D11" t="n">
-        <v>0.326</v>
+        <v>131.6276347835171</v>
       </c>
       <c r="E11" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="F11" t="n">
-        <v>131.6276347835171</v>
-      </c>
-      <c r="G11" t="n">
         <v>44.45806219923866</v>
       </c>
     </row>
@@ -699,22 +649,18 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>2602902003006</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2602902003006</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>1.264</v>
+        <v>10.094</v>
       </c>
       <c r="D12" t="n">
-        <v>0.514</v>
+        <v>132.8479137993069</v>
       </c>
       <c r="E12" t="n">
-        <v>10.094</v>
-      </c>
-      <c r="F12" t="n">
-        <v>132.8479137993069</v>
-      </c>
-      <c r="G12" t="n">
         <v>52.80131771393378</v>
       </c>
     </row>
@@ -722,22 +668,18 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>2602902003007</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2602902003007</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>1.312</v>
+        <v>10.836</v>
       </c>
       <c r="D13" t="n">
-        <v>0.454</v>
+        <v>125.7280983979899</v>
       </c>
       <c r="E13" t="n">
-        <v>10.836</v>
-      </c>
-      <c r="F13" t="n">
-        <v>125.7280983979899</v>
-      </c>
-      <c r="G13" t="n">
         <v>43.51124993857189</v>
       </c>
     </row>
@@ -745,22 +687,18 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>2602902003008</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2602902003008</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>1.556</v>
+        <v>13.064</v>
       </c>
       <c r="D14" t="n">
-        <v>0.55</v>
+        <v>122.4610101024295</v>
       </c>
       <c r="E14" t="n">
-        <v>13.064</v>
-      </c>
-      <c r="F14" t="n">
-        <v>122.4610101024295</v>
-      </c>
-      <c r="G14" t="n">
         <v>45.07215693364232</v>
       </c>
     </row>
@@ -768,22 +706,18 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>2603454003001</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2603454003001</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>0.843687374749499</v>
+        <v>6.442885771543086</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3066132264529058</v>
+        <v>141.419502341346</v>
       </c>
       <c r="E15" t="n">
-        <v>6.442885771543086</v>
-      </c>
-      <c r="F15" t="n">
-        <v>141.419502341346</v>
-      </c>
-      <c r="G15" t="n">
         <v>49.71949115235689</v>
       </c>
     </row>
@@ -791,22 +725,18 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>2603454003002</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2603454003002</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>1.032</v>
+        <v>8.616</v>
       </c>
       <c r="D16" t="n">
-        <v>0.348</v>
+        <v>122.6702738438031</v>
       </c>
       <c r="E16" t="n">
-        <v>8.616</v>
-      </c>
-      <c r="F16" t="n">
-        <v>122.6702738438031</v>
-      </c>
-      <c r="G16" t="n">
         <v>41.23561046796339</v>
       </c>
     </row>
@@ -814,22 +744,18 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>2603454003003</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2603454003003</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>0.806</v>
+        <v>7.304</v>
       </c>
       <c r="D17" t="n">
-        <v>0.292</v>
+        <v>116.031792064145</v>
       </c>
       <c r="E17" t="n">
-        <v>7.304</v>
-      </c>
-      <c r="F17" t="n">
-        <v>116.031792064145</v>
-      </c>
-      <c r="G17" t="n">
         <v>41.03558663558663</v>
       </c>
     </row>
@@ -837,22 +763,18 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>2603454003004</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2603454003004</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>0.842</v>
+        <v>6.662</v>
       </c>
       <c r="D18" t="n">
-        <v>0.312</v>
+        <v>143.9214230214231</v>
       </c>
       <c r="E18" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="F18" t="n">
-        <v>143.9214230214231</v>
-      </c>
-      <c r="G18" t="n">
         <v>51.29966144966142</v>
       </c>
     </row>
@@ -860,22 +782,18 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>2603454003005</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2603454003005</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>0.846</v>
+        <v>6.85</v>
       </c>
       <c r="D19" t="n">
-        <v>0.292</v>
+        <v>134.542574092574</v>
       </c>
       <c r="E19" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="F19" t="n">
-        <v>134.542574092574</v>
-      </c>
-      <c r="G19" t="n">
         <v>47.79330669330668</v>
       </c>
     </row>
@@ -883,22 +801,18 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>2603454003006</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2603454003006</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>1.64</v>
+        <v>12.536</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5659999999999999</v>
+        <v>135.6389145127467</v>
       </c>
       <c r="E20" t="n">
-        <v>12.536</v>
-      </c>
-      <c r="F20" t="n">
-        <v>135.6389145127467</v>
-      </c>
-      <c r="G20" t="n">
         <v>46.01086682457994</v>
       </c>
     </row>
@@ -906,22 +820,18 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>2603454003007</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2603454003007</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>2.38</v>
+        <v>18.66</v>
       </c>
       <c r="D21" t="n">
-        <v>0.832</v>
+        <v>130.952289695678</v>
       </c>
       <c r="E21" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="F21" t="n">
-        <v>130.952289695678</v>
-      </c>
-      <c r="G21" t="n">
         <v>46.02136854116291</v>
       </c>
     </row>
@@ -929,22 +839,18 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>2605202003001</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2605202003001</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>1.33</v>
+        <v>10.738</v>
       </c>
       <c r="D22" t="n">
-        <v>0.46</v>
+        <v>130.7681108794885</v>
       </c>
       <c r="E22" t="n">
-        <v>10.738</v>
-      </c>
-      <c r="F22" t="n">
-        <v>130.7681108794885</v>
-      </c>
-      <c r="G22" t="n">
         <v>44.2453447653138</v>
       </c>
     </row>
@@ -952,22 +858,18 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>2605202003002</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2605202003002</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>2.336</v>
+        <v>18.218</v>
       </c>
       <c r="D23" t="n">
-        <v>0.838</v>
+        <v>131.0858755174617</v>
       </c>
       <c r="E23" t="n">
-        <v>18.218</v>
-      </c>
-      <c r="F23" t="n">
-        <v>131.0858755174617</v>
-      </c>
-      <c r="G23" t="n">
         <v>46.94940350339067</v>
       </c>
     </row>
@@ -975,22 +877,18 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>2606804003001</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2606804003001</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>0.86</v>
+        <v>7.342</v>
       </c>
       <c r="D24" t="n">
-        <v>0.296</v>
+        <v>118.6955929691223</v>
       </c>
       <c r="E24" t="n">
-        <v>7.342</v>
-      </c>
-      <c r="F24" t="n">
-        <v>118.6955929691223</v>
-      </c>
-      <c r="G24" t="n">
         <v>39.18750301985592</v>
       </c>
     </row>
@@ -998,22 +896,18 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>2606804003002</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2606804003002</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>0.8617234468937875</v>
+        <v>7.657314629258517</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2945891783567134</v>
+        <v>118.2002971552659</v>
       </c>
       <c r="E25" t="n">
-        <v>7.657314629258517</v>
-      </c>
-      <c r="F25" t="n">
-        <v>118.2002971552659</v>
-      </c>
-      <c r="G25" t="n">
         <v>42.99362847193804</v>
       </c>
     </row>
@@ -1021,22 +915,18 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>2606804003003</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2606804003003</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>0.962</v>
+        <v>8.288</v>
       </c>
       <c r="D26" t="n">
-        <v>0.314</v>
+        <v>124.6821595071594</v>
       </c>
       <c r="E26" t="n">
-        <v>8.288</v>
-      </c>
-      <c r="F26" t="n">
-        <v>124.6821595071594</v>
-      </c>
-      <c r="G26" t="n">
         <v>41.22920135420134</v>
       </c>
     </row>
@@ -1044,22 +934,18 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>2606804003004</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2606804003004</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>1.466</v>
+        <v>11.774</v>
       </c>
       <c r="D27" t="n">
-        <v>0.462</v>
+        <v>128.4887235141879</v>
       </c>
       <c r="E27" t="n">
-        <v>11.774</v>
-      </c>
-      <c r="F27" t="n">
-        <v>128.4887235141879</v>
-      </c>
-      <c r="G27" t="n">
         <v>40.60063966820933</v>
       </c>
     </row>
@@ -1067,22 +953,18 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>2606804003005</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2606804003005</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>1.476</v>
+        <v>11.928</v>
       </c>
       <c r="D28" t="n">
-        <v>0.544</v>
+        <v>127.9946757465475</v>
       </c>
       <c r="E28" t="n">
-        <v>11.928</v>
-      </c>
-      <c r="F28" t="n">
-        <v>127.9946757465475</v>
-      </c>
-      <c r="G28" t="n">
         <v>47.04830258365793</v>
       </c>
     </row>
@@ -1090,22 +972,18 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>2607604001001</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2607604001001</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>1.258</v>
+        <v>8.474</v>
       </c>
       <c r="D29" t="n">
-        <v>0.462</v>
+        <v>148.2035100520393</v>
       </c>
       <c r="E29" t="n">
-        <v>8.474</v>
-      </c>
-      <c r="F29" t="n">
-        <v>148.2035100520393</v>
-      </c>
-      <c r="G29" t="n">
         <v>53.38642076877367</v>
       </c>
     </row>
@@ -1113,22 +991,18 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>2607752001001</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2607752001001</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>1.298</v>
+        <v>10.668</v>
       </c>
       <c r="D30" t="n">
-        <v>0.488</v>
+        <v>125.7319066898014</v>
       </c>
       <c r="E30" t="n">
-        <v>10.668</v>
-      </c>
-      <c r="F30" t="n">
-        <v>125.7319066898014</v>
-      </c>
-      <c r="G30" t="n">
         <v>46.96566843888824</v>
       </c>
     </row>
@@ -1136,22 +1010,18 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>2607901005001</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2607901005001</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>1.906</v>
+        <v>15.93</v>
       </c>
       <c r="D31" t="n">
-        <v>0.666</v>
+        <v>120.5443998190846</v>
       </c>
       <c r="E31" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="F31" t="n">
-        <v>120.5443998190846</v>
-      </c>
-      <c r="G31" t="n">
         <v>42.76911406123273</v>
       </c>
     </row>
@@ -1159,22 +1029,18 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>2607901005002</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2607901005002</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>3.218</v>
+        <v>25.544</v>
       </c>
       <c r="D32" t="n">
-        <v>1.198</v>
+        <v>128.5669714234793</v>
       </c>
       <c r="E32" t="n">
-        <v>25.544</v>
-      </c>
-      <c r="F32" t="n">
-        <v>128.5669714234793</v>
-      </c>
-      <c r="G32" t="n">
         <v>47.52976806860402</v>
       </c>
     </row>
@@ -1182,22 +1048,18 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>2607901005003</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2607901005003</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>1.74</v>
+        <v>15.306</v>
       </c>
       <c r="D33" t="n">
-        <v>0.63</v>
+        <v>118.892823246286</v>
       </c>
       <c r="E33" t="n">
-        <v>15.306</v>
-      </c>
-      <c r="F33" t="n">
-        <v>118.892823246286</v>
-      </c>
-      <c r="G33" t="n">
         <v>43.09987235089334</v>
       </c>
     </row>
@@ -1205,22 +1067,18 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>2607901005004</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2607901005004</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>1.854</v>
+        <v>15.898</v>
       </c>
       <c r="D34" t="n">
-        <v>0.658</v>
+        <v>120.8558046465382</v>
       </c>
       <c r="E34" t="n">
-        <v>15.898</v>
-      </c>
-      <c r="F34" t="n">
-        <v>120.8558046465382</v>
-      </c>
-      <c r="G34" t="n">
         <v>43.34669729441969</v>
       </c>
     </row>
@@ -1228,22 +1086,18 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>2607901005005</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2607901005005</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>2.242</v>
+        <v>17.644</v>
       </c>
       <c r="D35" t="n">
-        <v>0.774</v>
+        <v>130.9271818849692</v>
       </c>
       <c r="E35" t="n">
-        <v>17.644</v>
-      </c>
-      <c r="F35" t="n">
-        <v>130.9271818849692</v>
-      </c>
-      <c r="G35" t="n">
         <v>44.92694715363748</v>
       </c>
     </row>
@@ -1251,22 +1105,18 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>2607901005006</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2607901005006</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>2.932</v>
+        <v>23.71</v>
       </c>
       <c r="D36" t="n">
-        <v>1.082</v>
+        <v>125.5883027419431</v>
       </c>
       <c r="E36" t="n">
-        <v>23.71</v>
-      </c>
-      <c r="F36" t="n">
-        <v>125.5883027419431</v>
-      </c>
-      <c r="G36" t="n">
         <v>46.3983833915208</v>
       </c>
     </row>
@@ -1274,22 +1124,18 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>2607901005007</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2607901005007</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>2.688</v>
+        <v>21.36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.954</v>
+        <v>128.0261007619868</v>
       </c>
       <c r="E37" t="n">
-        <v>21.36</v>
-      </c>
-      <c r="F37" t="n">
-        <v>128.0261007619868</v>
-      </c>
-      <c r="G37" t="n">
         <v>45.66381823750562</v>
       </c>
     </row>
@@ -1297,22 +1143,18 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>2607901005008</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2607901005008</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>2.312</v>
+        <v>18.838</v>
       </c>
       <c r="D38" t="n">
-        <v>0.78</v>
+        <v>125.1747581775322</v>
       </c>
       <c r="E38" t="n">
-        <v>18.838</v>
-      </c>
-      <c r="F38" t="n">
-        <v>125.1747581775322</v>
-      </c>
-      <c r="G38" t="n">
         <v>42.54482473575154</v>
       </c>
     </row>
@@ -1320,22 +1162,18 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>2607901005009</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2607901005009</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>2.538</v>
+        <v>20.412</v>
       </c>
       <c r="D39" t="n">
-        <v>0.974</v>
+        <v>125.7701540234484</v>
       </c>
       <c r="E39" t="n">
-        <v>20.412</v>
-      </c>
-      <c r="F39" t="n">
-        <v>125.7701540234484</v>
-      </c>
-      <c r="G39" t="n">
         <v>48.58703283327011</v>
       </c>
     </row>
@@ -1343,22 +1181,18 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>2607901005010</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2607901005010</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>2.456</v>
+        <v>19.186</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9360000000000001</v>
+        <v>132.0038391826423</v>
       </c>
       <c r="E40" t="n">
-        <v>19.186</v>
-      </c>
-      <c r="F40" t="n">
-        <v>132.0038391826423</v>
-      </c>
-      <c r="G40" t="n">
         <v>49.84099766371592</v>
       </c>
     </row>
@@ -1366,22 +1200,18 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>2607901005011</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2607901005011</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>1.484</v>
+        <v>12.608</v>
       </c>
       <c r="D41" t="n">
-        <v>0.534</v>
+        <v>124.6828519094612</v>
       </c>
       <c r="E41" t="n">
-        <v>12.608</v>
-      </c>
-      <c r="F41" t="n">
-        <v>124.6828519094612</v>
-      </c>
-      <c r="G41" t="n">
         <v>44.91811557596319</v>
       </c>
     </row>
@@ -1389,22 +1219,18 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>2607901005012</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2607901005012</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>2.56</v>
+        <v>22.52</v>
       </c>
       <c r="D42" t="n">
-        <v>0.91</v>
+        <v>115.3569201103519</v>
       </c>
       <c r="E42" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="F42" t="n">
-        <v>115.3569201103519</v>
-      </c>
-      <c r="G42" t="n">
         <v>41.39683575593855</v>
       </c>
     </row>
@@ -1412,22 +1238,18 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>2607901005013</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2607901005013</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>1.722</v>
+        <v>14.91</v>
       </c>
       <c r="D43" t="n">
-        <v>0.594</v>
+        <v>120.1990176230942</v>
       </c>
       <c r="E43" t="n">
-        <v>14.91</v>
-      </c>
-      <c r="F43" t="n">
-        <v>120.1990176230942</v>
-      </c>
-      <c r="G43" t="n">
         <v>41.57770000859578</v>
       </c>
     </row>
@@ -1435,22 +1257,18 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>2607901005014</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2607901005014</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>1.992</v>
+        <v>16.438</v>
       </c>
       <c r="D44" t="n">
-        <v>0.664</v>
+        <v>123.7369399260862</v>
       </c>
       <c r="E44" t="n">
-        <v>16.438</v>
-      </c>
-      <c r="F44" t="n">
-        <v>123.7369399260862</v>
-      </c>
-      <c r="G44" t="n">
         <v>41.33793872958308</v>
       </c>
     </row>
@@ -1458,22 +1276,18 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>2607901005015</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2607901005015</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>2.204</v>
+        <v>17.844</v>
       </c>
       <c r="D45" t="n">
-        <v>0.782</v>
+        <v>125.3943432924589</v>
       </c>
       <c r="E45" t="n">
-        <v>17.844</v>
-      </c>
-      <c r="F45" t="n">
-        <v>125.3943432924589</v>
-      </c>
-      <c r="G45" t="n">
         <v>44.47834405824249</v>
       </c>
     </row>
@@ -1481,22 +1295,18 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>2607901005016</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2607901005016</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>1.618</v>
+        <v>13.306</v>
       </c>
       <c r="D46" t="n">
-        <v>0.548</v>
+        <v>127.637077095591</v>
       </c>
       <c r="E46" t="n">
-        <v>13.306</v>
-      </c>
-      <c r="F46" t="n">
-        <v>127.637077095591</v>
-      </c>
-      <c r="G46" t="n">
         <v>42.92643257155642</v>
       </c>
     </row>
@@ -1504,22 +1314,18 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>2607901005017</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2607901005017</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>1.772</v>
+        <v>13.472</v>
       </c>
       <c r="D47" t="n">
-        <v>0.626</v>
+        <v>134.0428715144505</v>
       </c>
       <c r="E47" t="n">
-        <v>13.472</v>
-      </c>
-      <c r="F47" t="n">
-        <v>134.0428715144505</v>
-      </c>
-      <c r="G47" t="n">
         <v>47.63411618481275</v>
       </c>
     </row>
@@ -1527,22 +1333,18 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>2609402003001</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2609402003001</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>1.524</v>
+        <v>11.876</v>
       </c>
       <c r="D48" t="n">
-        <v>0.528</v>
+        <v>138.1443929965131</v>
       </c>
       <c r="E48" t="n">
-        <v>11.876</v>
-      </c>
-      <c r="F48" t="n">
-        <v>138.1443929965131</v>
-      </c>
-      <c r="G48" t="n">
         <v>47.04661321650485</v>
       </c>
     </row>
@@ -1550,22 +1352,18 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>2609402003002</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2609402003002</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>1.808</v>
+        <v>14.324</v>
       </c>
       <c r="D49" t="n">
-        <v>0.668</v>
+        <v>129.6480503822865</v>
       </c>
       <c r="E49" t="n">
-        <v>14.324</v>
-      </c>
-      <c r="F49" t="n">
-        <v>129.6480503822865</v>
-      </c>
-      <c r="G49" t="n">
         <v>48.60715711381141</v>
       </c>
     </row>
@@ -1573,22 +1371,18 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>2609600005001</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2609600005001</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>1.922</v>
+        <v>15.602</v>
       </c>
       <c r="D50" t="n">
-        <v>0.66</v>
+        <v>127.1977112764244</v>
       </c>
       <c r="E50" t="n">
-        <v>15.602</v>
-      </c>
-      <c r="F50" t="n">
-        <v>127.1977112764244</v>
-      </c>
-      <c r="G50" t="n">
         <v>43.57200030138915</v>
       </c>
     </row>
@@ -1596,22 +1390,18 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>2609600005002</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2609600005002</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>1.628</v>
+        <v>13.534</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5600000000000001</v>
+        <v>125.6181730006033</v>
       </c>
       <c r="E51" t="n">
-        <v>13.534</v>
-      </c>
-      <c r="F51" t="n">
-        <v>125.6181730006033</v>
-      </c>
-      <c r="G51" t="n">
         <v>42.63781464493537</v>
       </c>
     </row>
@@ -1619,22 +1409,18 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>2609600005003</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2609600005003</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>1.454</v>
+        <v>11.648</v>
       </c>
       <c r="D52" t="n">
-        <v>0.54</v>
+        <v>128.675369960277</v>
       </c>
       <c r="E52" t="n">
-        <v>11.648</v>
-      </c>
-      <c r="F52" t="n">
-        <v>128.675369960277</v>
-      </c>
-      <c r="G52" t="n">
         <v>48.31472081410159</v>
       </c>
     </row>
@@ -1642,22 +1428,18 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>2609600005004</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2609600005004</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>1.264</v>
+        <v>10.346</v>
       </c>
       <c r="D53" t="n">
-        <v>0.464</v>
+        <v>129.9141171178322</v>
       </c>
       <c r="E53" t="n">
-        <v>10.346</v>
-      </c>
-      <c r="F53" t="n">
-        <v>129.9141171178322</v>
-      </c>
-      <c r="G53" t="n">
         <v>47.1524626474317</v>
       </c>
     </row>
@@ -1665,22 +1447,18 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>2609600005005</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2609600005005</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>0.9360000000000001</v>
+        <v>7.138</v>
       </c>
       <c r="D54" t="n">
-        <v>0.324</v>
+        <v>140.0979936729936</v>
       </c>
       <c r="E54" t="n">
-        <v>7.138</v>
-      </c>
-      <c r="F54" t="n">
-        <v>140.0979936729936</v>
-      </c>
-      <c r="G54" t="n">
         <v>47.89498001998</v>
       </c>
     </row>
@@ -1688,22 +1466,18 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>2609600005006</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2609600005006</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>0.774</v>
+        <v>6.926</v>
       </c>
       <c r="D55" t="n">
-        <v>0.278</v>
+        <v>121.4785603285602</v>
       </c>
       <c r="E55" t="n">
-        <v>6.926</v>
-      </c>
-      <c r="F55" t="n">
-        <v>121.4785603285602</v>
-      </c>
-      <c r="G55" t="n">
         <v>46.11858696858695</v>
       </c>
     </row>
@@ -1711,22 +1485,18 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>2609600005007</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2609600005007</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>1.404</v>
+        <v>10.766</v>
       </c>
       <c r="D56" t="n">
-        <v>0.47</v>
+        <v>135.0467608037704</v>
       </c>
       <c r="E56" t="n">
-        <v>10.766</v>
-      </c>
-      <c r="F56" t="n">
-        <v>135.0467608037704</v>
-      </c>
-      <c r="G56" t="n">
         <v>45.98044801177791</v>
       </c>
     </row>
@@ -1734,22 +1504,18 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>2609600005008</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2609600005008</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>1.974</v>
+        <v>15.334</v>
       </c>
       <c r="D57" t="n">
-        <v>0.672</v>
+        <v>134.6109727512433</v>
       </c>
       <c r="E57" t="n">
-        <v>15.334</v>
-      </c>
-      <c r="F57" t="n">
-        <v>134.6109727512433</v>
-      </c>
-      <c r="G57" t="n">
         <v>45.8286835632622</v>
       </c>
     </row>
@@ -1757,22 +1523,18 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>2609600005009</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2609600005009</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>1.604</v>
+        <v>13.222</v>
       </c>
       <c r="D58" t="n">
-        <v>0.578</v>
+        <v>125.875289243892</v>
       </c>
       <c r="E58" t="n">
-        <v>13.222</v>
-      </c>
-      <c r="F58" t="n">
-        <v>125.875289243892</v>
-      </c>
-      <c r="G58" t="n">
         <v>45.35437966708663</v>
       </c>
     </row>
@@ -1780,22 +1542,18 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>2609600005010</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2609600005010</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>1.352</v>
+        <v>12.662</v>
       </c>
       <c r="D59" t="n">
-        <v>0.44</v>
+        <v>112.0651626151626</v>
       </c>
       <c r="E59" t="n">
-        <v>12.662</v>
-      </c>
-      <c r="F59" t="n">
-        <v>112.0651626151626</v>
-      </c>
-      <c r="G59" t="n">
         <v>36.17766684639746</v>
       </c>
     </row>
@@ -1803,22 +1561,18 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>2609600005011</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2609600005011</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>2.29</v>
+        <v>19.08</v>
       </c>
       <c r="D60" t="n">
-        <v>0.854</v>
+        <v>122.1841260640534</v>
       </c>
       <c r="E60" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="F60" t="n">
-        <v>122.1841260640534</v>
-      </c>
-      <c r="G60" t="n">
         <v>45.98228491687002</v>
       </c>
     </row>
@@ -1826,22 +1580,18 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>2609600005012</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2609600005012</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>1.036</v>
+        <v>8.651999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.368</v>
+        <v>126.0037830590461</v>
       </c>
       <c r="E61" t="n">
-        <v>8.651999999999999</v>
-      </c>
-      <c r="F61" t="n">
-        <v>126.0037830590461</v>
-      </c>
-      <c r="G61" t="n">
         <v>45.60757020757017</v>
       </c>
     </row>
@@ -1849,22 +1599,18 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>2609600005013</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2609600005013</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>0.892</v>
+        <v>7.086</v>
       </c>
       <c r="D62" t="n">
-        <v>0.32</v>
+        <v>135.1202090307353</v>
       </c>
       <c r="E62" t="n">
-        <v>7.086</v>
-      </c>
-      <c r="F62" t="n">
-        <v>135.1202090307353</v>
-      </c>
-      <c r="G62" t="n">
         <v>50.12474367737524</v>
       </c>
     </row>
@@ -1872,22 +1618,18 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>2609600005014</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2609600005014</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>1.314</v>
+        <v>10.584</v>
       </c>
       <c r="D63" t="n">
-        <v>0.488</v>
+        <v>127.7274540990484</v>
       </c>
       <c r="E63" t="n">
-        <v>10.584</v>
-      </c>
-      <c r="F63" t="n">
-        <v>127.7274540990484</v>
-      </c>
-      <c r="G63" t="n">
         <v>47.70943859202369</v>
       </c>
     </row>
@@ -1895,22 +1637,18 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>2609600005015</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2609600005015</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>2.392</v>
+        <v>20.686</v>
       </c>
       <c r="D64" t="n">
-        <v>0.826</v>
+        <v>117.8459740197815</v>
       </c>
       <c r="E64" t="n">
-        <v>20.686</v>
-      </c>
-      <c r="F64" t="n">
-        <v>117.8459740197815</v>
-      </c>
-      <c r="G64" t="n">
         <v>40.27179856369624</v>
       </c>
     </row>
@@ -1918,22 +1656,18 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>2610608003001</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2610608003001</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>1.318</v>
+        <v>11.334</v>
       </c>
       <c r="D65" t="n">
-        <v>0.478</v>
+        <v>119.6655490708122</v>
       </c>
       <c r="E65" t="n">
-        <v>11.334</v>
-      </c>
-      <c r="F65" t="n">
-        <v>119.6655490708122</v>
-      </c>
-      <c r="G65" t="n">
         <v>43.91344713078458</v>
       </c>
     </row>
@@ -1941,22 +1675,18 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>2610608003002</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2610608003002</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>1.56</v>
+        <v>12.36</v>
       </c>
       <c r="D66" t="n">
-        <v>0.57</v>
+        <v>132.9402700240935</v>
       </c>
       <c r="E66" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="F66" t="n">
-        <v>132.9402700240935</v>
-      </c>
-      <c r="G66" t="n">
         <v>47.69902546713688</v>
       </c>
     </row>
@@ -1964,22 +1694,18 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>2610707003001</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2610707003001</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>0.9397590361445785</v>
+        <v>8.066265060240964</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3373493975903614</v>
+        <v>126.5631481825203</v>
       </c>
       <c r="E67" t="n">
-        <v>8.066265060240964</v>
-      </c>
-      <c r="F67" t="n">
-        <v>126.5631481825203</v>
-      </c>
-      <c r="G67" t="n">
         <v>44.52811802209389</v>
       </c>
     </row>
@@ -1987,22 +1713,18 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>2610707003002</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2610707003002</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>0.7248995983935743</v>
+        <v>6.016064257028113</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3012048192771084</v>
+        <v>127.0139666224004</v>
       </c>
       <c r="E68" t="n">
-        <v>6.016064257028113</v>
-      </c>
-      <c r="F68" t="n">
-        <v>127.0139666224004</v>
-      </c>
-      <c r="G68" t="n">
         <v>55.50327628640878</v>
       </c>
     </row>
@@ -2010,22 +1732,18 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>2610707003003</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2610707003003</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>0.9340000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32</v>
+        <v>124.3577450327449</v>
       </c>
       <c r="E69" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F69" t="n">
-        <v>124.3577450327449</v>
-      </c>
-      <c r="G69" t="n">
         <v>44.2455155955156</v>
       </c>
     </row>
@@ -2033,22 +1751,18 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>2610707003004</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2610707003004</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>1.842</v>
+        <v>14.438</v>
       </c>
       <c r="D70" t="n">
-        <v>0.656</v>
+        <v>135.8316221707977</v>
       </c>
       <c r="E70" t="n">
-        <v>14.438</v>
-      </c>
-      <c r="F70" t="n">
-        <v>135.8316221707977</v>
-      </c>
-      <c r="G70" t="n">
         <v>47.99352510312057</v>
       </c>
     </row>
@@ -2056,22 +1770,18 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>2610707003005</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2610707003005</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>3.158</v>
+        <v>25.614</v>
       </c>
       <c r="D71" t="n">
-        <v>1.154</v>
+        <v>125.203200717401</v>
       </c>
       <c r="E71" t="n">
-        <v>25.614</v>
-      </c>
-      <c r="F71" t="n">
-        <v>125.203200717401</v>
-      </c>
-      <c r="G71" t="n">
         <v>45.97383711454432</v>
       </c>
     </row>
@@ -2079,22 +1789,18 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>2610707003006</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2610707003006</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>0.798</v>
+        <v>7.16</v>
       </c>
       <c r="D72" t="n">
-        <v>0.288</v>
+        <v>121.5028665778665</v>
       </c>
       <c r="E72" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="F72" t="n">
-        <v>121.5028665778665</v>
-      </c>
-      <c r="G72" t="n">
         <v>43.84612609612609</v>
       </c>
     </row>
@@ -2102,22 +1808,18 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>2610707003007</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2610707003007</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>0.868</v>
+        <v>7.01</v>
       </c>
       <c r="D73" t="n">
-        <v>0.306</v>
+        <v>132.9585192585192</v>
       </c>
       <c r="E73" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="F73" t="n">
-        <v>132.9585192585192</v>
-      </c>
-      <c r="G73" t="n">
         <v>45.46873126873125</v>
       </c>
     </row>
@@ -2125,22 +1827,18 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>2610707003008</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2610707003008</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>0.96</v>
+        <v>7.856</v>
       </c>
       <c r="D74" t="n">
-        <v>0.334</v>
+        <v>125.6575174825174</v>
       </c>
       <c r="E74" t="n">
-        <v>7.856</v>
-      </c>
-      <c r="F74" t="n">
-        <v>125.6575174825174</v>
-      </c>
-      <c r="G74" t="n">
         <v>44.20414585414584</v>
       </c>
     </row>
@@ -2148,22 +1846,18 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>2610707003009</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2610707003009</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>0.99</v>
+        <v>7.708</v>
       </c>
       <c r="D75" t="n">
-        <v>0.38</v>
+        <v>133.5920218670218</v>
       </c>
       <c r="E75" t="n">
-        <v>7.708</v>
-      </c>
-      <c r="F75" t="n">
-        <v>133.5920218670218</v>
-      </c>
-      <c r="G75" t="n">
         <v>50.95408757908753</v>
       </c>
     </row>
@@ -2171,22 +1865,18 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>2610707003010</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2610707003010</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>1.186</v>
+        <v>10.292</v>
       </c>
       <c r="D76" t="n">
-        <v>0.454</v>
+        <v>122.9414532749672</v>
       </c>
       <c r="E76" t="n">
-        <v>10.292</v>
-      </c>
-      <c r="F76" t="n">
-        <v>122.9414532749672</v>
-      </c>
-      <c r="G76" t="n">
         <v>46.36539979628215</v>
       </c>
     </row>
@@ -2194,22 +1884,18 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>2610707003011</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2610707003011</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>0.9378757515030059</v>
+        <v>8.056112224448897</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3386773547094188</v>
+        <v>126.2520653537981</v>
       </c>
       <c r="E77" t="n">
-        <v>8.056112224448897</v>
-      </c>
-      <c r="F77" t="n">
-        <v>126.2520653537981</v>
-      </c>
-      <c r="G77" t="n">
         <v>44.03859137443951</v>
       </c>
     </row>
@@ -2217,22 +1903,18 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>2610707003012</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2610707003012</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>1.994</v>
+        <v>16.6</v>
       </c>
       <c r="D78" t="n">
-        <v>0.72</v>
+        <v>122.6489761278269</v>
       </c>
       <c r="E78" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F78" t="n">
-        <v>122.6489761278269</v>
-      </c>
-      <c r="G78" t="n">
         <v>44.27714553993532</v>
       </c>
     </row>
@@ -2240,22 +1922,18 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>2610707003013</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2610707003013</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>1.946</v>
+        <v>16.436</v>
       </c>
       <c r="D79" t="n">
-        <v>0.708</v>
+        <v>120.8660084948778</v>
       </c>
       <c r="E79" t="n">
-        <v>16.436</v>
-      </c>
-      <c r="F79" t="n">
-        <v>120.8660084948778</v>
-      </c>
-      <c r="G79" t="n">
         <v>43.55706373869719</v>
       </c>
     </row>
@@ -2263,22 +1941,18 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>2611606005001</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2611606005001</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>1.788</v>
+        <v>14.18</v>
       </c>
       <c r="D80" t="n">
-        <v>0.604</v>
+        <v>129.7533091186046</v>
       </c>
       <c r="E80" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="F80" t="n">
-        <v>129.7533091186046</v>
-      </c>
-      <c r="G80" t="n">
         <v>43.9908039351504</v>
       </c>
     </row>
@@ -2286,22 +1960,18 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>2611606005002</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2611606005002</t>
+        </is>
       </c>
       <c r="C81" t="n">
-        <v>2.872</v>
+        <v>23.696</v>
       </c>
       <c r="D81" t="n">
-        <v>1.036</v>
+        <v>123.9549826715465</v>
       </c>
       <c r="E81" t="n">
-        <v>23.696</v>
-      </c>
-      <c r="F81" t="n">
-        <v>123.9549826715465</v>
-      </c>
-      <c r="G81" t="n">
         <v>44.77523750614001</v>
       </c>
     </row>
@@ -2309,22 +1979,18 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>2611606005003</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2611606005003</t>
+        </is>
       </c>
       <c r="C82" t="n">
-        <v>3.124</v>
+        <v>26.53</v>
       </c>
       <c r="D82" t="n">
-        <v>1.148</v>
+        <v>120.1711261508253</v>
       </c>
       <c r="E82" t="n">
-        <v>26.53</v>
-      </c>
-      <c r="F82" t="n">
-        <v>120.1711261508253</v>
-      </c>
-      <c r="G82" t="n">
         <v>44.11601141828576</v>
       </c>
     </row>
@@ -2332,22 +1998,18 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>2611606005004</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2611606005004</t>
+        </is>
       </c>
       <c r="C83" t="n">
-        <v>1.732</v>
+        <v>13.716</v>
       </c>
       <c r="D83" t="n">
-        <v>0.596</v>
+        <v>132.0632020462301</v>
       </c>
       <c r="E83" t="n">
-        <v>13.716</v>
-      </c>
-      <c r="F83" t="n">
-        <v>132.0632020462301</v>
-      </c>
-      <c r="G83" t="n">
         <v>44.65667216945718</v>
       </c>
     </row>
@@ -2355,22 +2017,18 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>2611606005005</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2611606005005</t>
+        </is>
       </c>
       <c r="C84" t="n">
-        <v>2.632</v>
+        <v>21.168</v>
       </c>
       <c r="D84" t="n">
-        <v>0.886</v>
+        <v>127.0945305581339</v>
       </c>
       <c r="E84" t="n">
-        <v>21.168</v>
-      </c>
-      <c r="F84" t="n">
-        <v>127.0945305581339</v>
-      </c>
-      <c r="G84" t="n">
         <v>42.38744662053396</v>
       </c>
     </row>
@@ -2378,22 +2036,18 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>2611606005006</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2611606005006</t>
+        </is>
       </c>
       <c r="C85" t="n">
-        <v>1.862</v>
+        <v>15.168</v>
       </c>
       <c r="D85" t="n">
-        <v>0.678</v>
+        <v>126.2633694875738</v>
       </c>
       <c r="E85" t="n">
-        <v>15.168</v>
-      </c>
-      <c r="F85" t="n">
-        <v>126.2633694875738</v>
-      </c>
-      <c r="G85" t="n">
         <v>46.11933640421268</v>
       </c>
     </row>
@@ -2401,22 +2055,18 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>2611606005007</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2611606005007</t>
+        </is>
       </c>
       <c r="C86" t="n">
-        <v>1.942</v>
+        <v>14.81</v>
       </c>
       <c r="D86" t="n">
-        <v>0.678</v>
+        <v>136.2240570880489</v>
       </c>
       <c r="E86" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="F86" t="n">
-        <v>136.2240570880489</v>
-      </c>
-      <c r="G86" t="n">
         <v>47.12042635958438</v>
       </c>
     </row>
@@ -2424,22 +2074,18 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>2611606005008</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2611606005008</t>
+        </is>
       </c>
       <c r="C87" t="n">
-        <v>1.944</v>
+        <v>15.446</v>
       </c>
       <c r="D87" t="n">
-        <v>0.66</v>
+        <v>131.4503229205878</v>
       </c>
       <c r="E87" t="n">
-        <v>15.446</v>
-      </c>
-      <c r="F87" t="n">
-        <v>131.4503229205878</v>
-      </c>
-      <c r="G87" t="n">
         <v>44.86930200580056</v>
       </c>
     </row>
@@ -2447,22 +2093,18 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>2611606005009</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2611606005009</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>2.244</v>
+        <v>19.612</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8080000000000001</v>
+        <v>116.7584726640631</v>
       </c>
       <c r="E88" t="n">
-        <v>19.612</v>
-      </c>
-      <c r="F88" t="n">
-        <v>116.7584726640631</v>
-      </c>
-      <c r="G88" t="n">
         <v>42.21785481980501</v>
       </c>
     </row>
@@ -2470,22 +2112,18 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>2611606005010</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2611606005010</t>
+        </is>
       </c>
       <c r="C89" t="n">
-        <v>1.448</v>
+        <v>13.28</v>
       </c>
       <c r="D89" t="n">
-        <v>0.524</v>
+        <v>112.9114116010671</v>
       </c>
       <c r="E89" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="F89" t="n">
-        <v>112.9114116010671</v>
-      </c>
-      <c r="G89" t="n">
         <v>39.80981956303667</v>
       </c>
     </row>
@@ -2493,22 +2131,18 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>2611606005011</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2611606005011</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>1.986</v>
+        <v>16.862</v>
       </c>
       <c r="D90" t="n">
-        <v>0.76</v>
+        <v>120.21998221272</v>
       </c>
       <c r="E90" t="n">
-        <v>16.862</v>
-      </c>
-      <c r="F90" t="n">
-        <v>120.21998221272</v>
-      </c>
-      <c r="G90" t="n">
         <v>45.7364037392634</v>
       </c>
     </row>
@@ -2516,22 +2150,18 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>2611606005012</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2611606005012</t>
+        </is>
       </c>
       <c r="C91" t="n">
-        <v>1.72</v>
+        <v>14.604</v>
       </c>
       <c r="D91" t="n">
-        <v>0.574</v>
+        <v>122.8999931677929</v>
       </c>
       <c r="E91" t="n">
-        <v>14.604</v>
-      </c>
-      <c r="F91" t="n">
-        <v>122.8999931677929</v>
-      </c>
-      <c r="G91" t="n">
         <v>40.90431148658705</v>
       </c>
     </row>
@@ -2539,22 +2169,18 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>2611606005013</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2611606005013</t>
+        </is>
       </c>
       <c r="C92" t="n">
-        <v>2.45</v>
+        <v>20.3</v>
       </c>
       <c r="D92" t="n">
-        <v>0.896</v>
+        <v>125.8722472477206</v>
       </c>
       <c r="E92" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="F92" t="n">
-        <v>125.8722472477206</v>
-      </c>
-      <c r="G92" t="n">
         <v>46.27366377669723</v>
       </c>
     </row>
@@ -2562,22 +2188,18 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>2611606005014</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2611606005014</t>
+        </is>
       </c>
       <c r="C93" t="n">
-        <v>1.888</v>
+        <v>14.964</v>
       </c>
       <c r="D93" t="n">
-        <v>0.628</v>
+        <v>131.3776811823554</v>
       </c>
       <c r="E93" t="n">
-        <v>14.964</v>
-      </c>
-      <c r="F93" t="n">
-        <v>131.3776811823554</v>
-      </c>
-      <c r="G93" t="n">
         <v>43.7250472256738</v>
       </c>
     </row>
@@ -2585,22 +2207,18 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>2611606005015</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2611606005015</t>
+        </is>
       </c>
       <c r="C94" t="n">
-        <v>1.932</v>
+        <v>15.826</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6820000000000001</v>
+        <v>127.3766529158508</v>
       </c>
       <c r="E94" t="n">
-        <v>15.826</v>
-      </c>
-      <c r="F94" t="n">
-        <v>127.3766529158508</v>
-      </c>
-      <c r="G94" t="n">
         <v>45.34848198427429</v>
       </c>
     </row>
@@ -2608,22 +2226,18 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
-        <v>2611606005016</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2611606005016</t>
+        </is>
       </c>
       <c r="C95" t="n">
-        <v>1.73</v>
+        <v>13.612</v>
       </c>
       <c r="D95" t="n">
-        <v>0.658</v>
+        <v>133.7507740210762</v>
       </c>
       <c r="E95" t="n">
-        <v>13.612</v>
-      </c>
-      <c r="F95" t="n">
-        <v>133.7507740210762</v>
-      </c>
-      <c r="G95" t="n">
         <v>51.35288325328371</v>
       </c>
     </row>
@@ -2631,22 +2245,18 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>2611606005017</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2611606005017</t>
+        </is>
       </c>
       <c r="C96" t="n">
-        <v>2.638</v>
+        <v>21.64</v>
       </c>
       <c r="D96" t="n">
-        <v>0.93</v>
+        <v>123.067572891638</v>
       </c>
       <c r="E96" t="n">
-        <v>21.64</v>
-      </c>
-      <c r="F96" t="n">
-        <v>123.067572891638</v>
-      </c>
-      <c r="G96" t="n">
         <v>44.0960868057128</v>
       </c>
     </row>
@@ -2654,22 +2264,18 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
-        <v>2611606005018</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2611606005018</t>
+        </is>
       </c>
       <c r="C97" t="n">
-        <v>1.632</v>
+        <v>13.464</v>
       </c>
       <c r="D97" t="n">
-        <v>0.572</v>
+        <v>123.9023169684894</v>
       </c>
       <c r="E97" t="n">
-        <v>13.464</v>
-      </c>
-      <c r="F97" t="n">
-        <v>123.9023169684894</v>
-      </c>
-      <c r="G97" t="n">
         <v>43.79857991771166</v>
       </c>
     </row>
@@ -2677,22 +2283,18 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
-        <v>2611606005019</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2611606005019</t>
+        </is>
       </c>
       <c r="C98" t="n">
-        <v>2.174</v>
+        <v>18.082</v>
       </c>
       <c r="D98" t="n">
-        <v>0.804</v>
+        <v>123.4278497066858</v>
       </c>
       <c r="E98" t="n">
-        <v>18.082</v>
-      </c>
-      <c r="F98" t="n">
-        <v>123.4278497066858</v>
-      </c>
-      <c r="G98" t="n">
         <v>45.52292913718224</v>
       </c>
     </row>
@@ -2700,22 +2302,18 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>2611606005020</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2611606005020</t>
+        </is>
       </c>
       <c r="C99" t="n">
-        <v>2.37</v>
+        <v>20.57</v>
       </c>
       <c r="D99" t="n">
-        <v>0.836</v>
+        <v>119.2010206599246</v>
       </c>
       <c r="E99" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="F99" t="n">
-        <v>119.2010206599246</v>
-      </c>
-      <c r="G99" t="n">
         <v>41.30010087265975</v>
       </c>
     </row>
@@ -2723,22 +2321,18 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>2611606005021</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2611606005021</t>
+        </is>
       </c>
       <c r="C100" t="n">
-        <v>2.478</v>
+        <v>20.366</v>
       </c>
       <c r="D100" t="n">
-        <v>0.912</v>
+        <v>123.9009600313214</v>
       </c>
       <c r="E100" t="n">
-        <v>20.366</v>
-      </c>
-      <c r="F100" t="n">
-        <v>123.9009600313214</v>
-      </c>
-      <c r="G100" t="n">
         <v>45.50848329502769</v>
       </c>
     </row>
@@ -2746,22 +2340,18 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>2611606005022</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2611606005022</t>
+        </is>
       </c>
       <c r="C101" t="n">
-        <v>3.082</v>
+        <v>24.838</v>
       </c>
       <c r="D101" t="n">
-        <v>1.16</v>
+        <v>125.5202367391719</v>
       </c>
       <c r="E101" t="n">
-        <v>24.838</v>
-      </c>
-      <c r="F101" t="n">
-        <v>125.5202367391719</v>
-      </c>
-      <c r="G101" t="n">
         <v>47.48730256676944</v>
       </c>
     </row>
@@ -2769,22 +2359,18 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
-        <v>2611606005023</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2611606005023</t>
+        </is>
       </c>
       <c r="C102" t="n">
-        <v>3.016</v>
+        <v>25.796</v>
       </c>
       <c r="D102" t="n">
-        <v>1.108</v>
+        <v>119.4040132153814</v>
       </c>
       <c r="E102" t="n">
-        <v>25.796</v>
-      </c>
-      <c r="F102" t="n">
-        <v>119.4040132153814</v>
-      </c>
-      <c r="G102" t="n">
         <v>43.71604104164183</v>
       </c>
     </row>
@@ -2792,22 +2378,18 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>2611606005024</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2611606005024</t>
+        </is>
       </c>
       <c r="C103" t="n">
-        <v>1.584</v>
+        <v>13.208</v>
       </c>
       <c r="D103" t="n">
-        <v>0.582</v>
+        <v>125.6874482235433</v>
       </c>
       <c r="E103" t="n">
-        <v>13.208</v>
-      </c>
-      <c r="F103" t="n">
-        <v>125.6874482235433</v>
-      </c>
-      <c r="G103" t="n">
         <v>46.17305627211064</v>
       </c>
     </row>
@@ -2815,22 +2397,18 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>2611606005025</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2611606005025</t>
+        </is>
       </c>
       <c r="C104" t="n">
-        <v>2.294</v>
+        <v>17.494</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8</v>
+        <v>132.976340869064</v>
       </c>
       <c r="E104" t="n">
-        <v>17.494</v>
-      </c>
-      <c r="F104" t="n">
-        <v>132.976340869064</v>
-      </c>
-      <c r="G104" t="n">
         <v>46.25621214976271</v>
       </c>
     </row>
@@ -2838,22 +2416,18 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
-        <v>2611606005026</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2611606005026</t>
+        </is>
       </c>
       <c r="C105" t="n">
-        <v>3.318</v>
+        <v>27.094</v>
       </c>
       <c r="D105" t="n">
-        <v>1.236</v>
+        <v>124.5344018707134</v>
       </c>
       <c r="E105" t="n">
-        <v>27.094</v>
-      </c>
-      <c r="F105" t="n">
-        <v>124.5344018707134</v>
-      </c>
-      <c r="G105" t="n">
         <v>46.46365386426288</v>
       </c>
     </row>
@@ -2861,22 +2435,18 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>2611606005027</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2611606005027</t>
+        </is>
       </c>
       <c r="C106" t="n">
-        <v>3.714</v>
+        <v>29.034</v>
       </c>
       <c r="D106" t="n">
-        <v>1.328</v>
+        <v>130.097596580898</v>
       </c>
       <c r="E106" t="n">
-        <v>29.034</v>
-      </c>
-      <c r="F106" t="n">
-        <v>130.097596580898</v>
-      </c>
-      <c r="G106" t="n">
         <v>46.32858077287074</v>
       </c>
     </row>
@@ -2884,22 +2454,18 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
-        <v>2611606005028</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2611606005028</t>
+        </is>
       </c>
       <c r="C107" t="n">
-        <v>1.788</v>
+        <v>15.2</v>
       </c>
       <c r="D107" t="n">
-        <v>0.694</v>
+        <v>121.5440765652389</v>
       </c>
       <c r="E107" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F107" t="n">
-        <v>121.5440765652389</v>
-      </c>
-      <c r="G107" t="n">
         <v>47.47640780267377</v>
       </c>
     </row>
@@ -2907,22 +2473,18 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
-        <v>2611606005029</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2611606005029</t>
+        </is>
       </c>
       <c r="C108" t="n">
-        <v>2.54</v>
+        <v>19.836</v>
       </c>
       <c r="D108" t="n">
-        <v>0.884</v>
+        <v>131.6428676926425</v>
       </c>
       <c r="E108" t="n">
-        <v>19.836</v>
-      </c>
-      <c r="F108" t="n">
-        <v>131.6428676926425</v>
-      </c>
-      <c r="G108" t="n">
         <v>46.42049676679788</v>
       </c>
     </row>
@@ -2930,22 +2492,18 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
-        <v>2611606005030</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2611606005030</t>
+        </is>
       </c>
       <c r="C109" t="n">
-        <v>2.622</v>
+        <v>17.806</v>
       </c>
       <c r="D109" t="n">
-        <v>0.974</v>
+        <v>151.8708081349457</v>
       </c>
       <c r="E109" t="n">
-        <v>17.806</v>
-      </c>
-      <c r="F109" t="n">
-        <v>151.8708081349457</v>
-      </c>
-      <c r="G109" t="n">
         <v>56.6410305511133</v>
       </c>
     </row>
@@ -2953,22 +2511,18 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
-        <v>2611606005031</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2611606005031</t>
+        </is>
       </c>
       <c r="C110" t="n">
-        <v>2.918</v>
+        <v>23.358</v>
       </c>
       <c r="D110" t="n">
-        <v>0.998</v>
+        <v>128.7236954465658</v>
       </c>
       <c r="E110" t="n">
-        <v>23.358</v>
-      </c>
-      <c r="F110" t="n">
-        <v>128.7236954465658</v>
-      </c>
-      <c r="G110" t="n">
         <v>43.63730677311193</v>
       </c>
     </row>
@@ -2976,22 +2530,18 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
-        <v>2611606005032</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2611606005032</t>
+        </is>
       </c>
       <c r="C111" t="n">
-        <v>2.08</v>
+        <v>19.694</v>
       </c>
       <c r="D111" t="n">
-        <v>0.728</v>
+        <v>109.8229092403555</v>
       </c>
       <c r="E111" t="n">
-        <v>19.694</v>
-      </c>
-      <c r="F111" t="n">
-        <v>109.8229092403555</v>
-      </c>
-      <c r="G111" t="n">
         <v>38.41663310964277</v>
       </c>
     </row>
@@ -2999,22 +2549,18 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
-        <v>2611606005033</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2611606005033</t>
+        </is>
       </c>
       <c r="C112" t="n">
-        <v>2.894</v>
+        <v>24.692</v>
       </c>
       <c r="D112" t="n">
-        <v>0.97</v>
+        <v>119.1239751366408</v>
       </c>
       <c r="E112" t="n">
-        <v>24.692</v>
-      </c>
-      <c r="F112" t="n">
-        <v>119.1239751366408</v>
-      </c>
-      <c r="G112" t="n">
         <v>40.37035934701603</v>
       </c>
     </row>
@@ -3022,22 +2568,18 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
-        <v>2611606005034</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2611606005034</t>
+        </is>
       </c>
       <c r="C113" t="n">
-        <v>1.832</v>
+        <v>16.826</v>
       </c>
       <c r="D113" t="n">
-        <v>0.716</v>
+        <v>112.1169515769009</v>
       </c>
       <c r="E113" t="n">
-        <v>16.826</v>
-      </c>
-      <c r="F113" t="n">
-        <v>112.1169515769009</v>
-      </c>
-      <c r="G113" t="n">
         <v>43.83550180391327</v>
       </c>
     </row>
@@ -3045,22 +2587,18 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
-        <v>2611606005035</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2611606005035</t>
+        </is>
       </c>
       <c r="C114" t="n">
-        <v>1.99</v>
+        <v>16.476</v>
       </c>
       <c r="D114" t="n">
-        <v>0.706</v>
+        <v>124.6542565834597</v>
       </c>
       <c r="E114" t="n">
-        <v>16.476</v>
-      </c>
-      <c r="F114" t="n">
-        <v>124.6542565834597</v>
-      </c>
-      <c r="G114" t="n">
         <v>44.20341500781465</v>
       </c>
     </row>
@@ -3068,22 +2606,18 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
-        <v>2611606005036</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2611606005036</t>
+        </is>
       </c>
       <c r="C115" t="n">
-        <v>2.346</v>
+        <v>19.968</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8179999999999999</v>
+        <v>120.9019380950355</v>
       </c>
       <c r="E115" t="n">
-        <v>19.968</v>
-      </c>
-      <c r="F115" t="n">
-        <v>120.9019380950355</v>
-      </c>
-      <c r="G115" t="n">
         <v>41.82546609277443</v>
       </c>
     </row>
@@ -3091,22 +2625,18 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
-        <v>2611606005037</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2611606005037</t>
+        </is>
       </c>
       <c r="C116" t="n">
-        <v>1.584</v>
+        <v>12.738</v>
       </c>
       <c r="D116" t="n">
-        <v>0.578</v>
+        <v>128.6270901467327</v>
       </c>
       <c r="E116" t="n">
-        <v>12.738</v>
-      </c>
-      <c r="F116" t="n">
-        <v>128.6270901467327</v>
-      </c>
-      <c r="G116" t="n">
         <v>46.77634548973556</v>
       </c>
     </row>
@@ -3114,22 +2644,18 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
-        <v>2611606005038</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2611606005038</t>
+        </is>
       </c>
       <c r="C117" t="n">
-        <v>2.64</v>
+        <v>21.302</v>
       </c>
       <c r="D117" t="n">
-        <v>0.906</v>
+        <v>126.9983107413824</v>
       </c>
       <c r="E117" t="n">
-        <v>21.302</v>
-      </c>
-      <c r="F117" t="n">
-        <v>126.9983107413824</v>
-      </c>
-      <c r="G117" t="n">
         <v>44.45630128714046</v>
       </c>
     </row>
@@ -3137,22 +2663,18 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
-        <v>2611606005039</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2611606005039</t>
+        </is>
       </c>
       <c r="C118" t="n">
-        <v>2.232</v>
+        <v>18.004</v>
       </c>
       <c r="D118" t="n">
-        <v>0.796</v>
+        <v>127.2562279072952</v>
       </c>
       <c r="E118" t="n">
-        <v>18.004</v>
-      </c>
-      <c r="F118" t="n">
-        <v>127.2562279072952</v>
-      </c>
-      <c r="G118" t="n">
         <v>45.6330543667354</v>
       </c>
     </row>
@@ -3160,22 +2682,18 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
-        <v>2611606005040</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2611606005040</t>
+        </is>
       </c>
       <c r="C119" t="n">
-        <v>1.676</v>
+        <v>14.202</v>
       </c>
       <c r="D119" t="n">
-        <v>0.59</v>
+        <v>121.0168529254206</v>
       </c>
       <c r="E119" t="n">
-        <v>14.202</v>
-      </c>
-      <c r="F119" t="n">
-        <v>121.0168529254206</v>
-      </c>
-      <c r="G119" t="n">
         <v>42.03315414771733</v>
       </c>
     </row>
@@ -3183,22 +2701,18 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
-        <v>2613701003001</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2613701003001</t>
+        </is>
       </c>
       <c r="C120" t="n">
-        <v>0.844</v>
+        <v>7.006</v>
       </c>
       <c r="D120" t="n">
-        <v>0.29</v>
+        <v>129.119325119325</v>
       </c>
       <c r="E120" t="n">
-        <v>7.006</v>
-      </c>
-      <c r="F120" t="n">
-        <v>129.119325119325</v>
-      </c>
-      <c r="G120" t="n">
         <v>42.59444444444441</v>
       </c>
     </row>
@@ -3206,22 +2720,18 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
-        <v>2613701003002</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2613701003002</t>
+        </is>
       </c>
       <c r="C121" t="n">
-        <v>1.054</v>
+        <v>8.635999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.366</v>
+        <v>127.1872493863205</v>
       </c>
       <c r="E121" t="n">
-        <v>8.635999999999999</v>
-      </c>
-      <c r="F121" t="n">
-        <v>127.1872493863205</v>
-      </c>
-      <c r="G121" t="n">
         <v>45.36474987001302</v>
       </c>
     </row>
@@ -3229,22 +2739,18 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
-        <v>2613701003003</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2613701003003</t>
+        </is>
       </c>
       <c r="C122" t="n">
-        <v>1.082</v>
+        <v>8.554</v>
       </c>
       <c r="D122" t="n">
-        <v>0.35</v>
+        <v>132.2633200133199</v>
       </c>
       <c r="E122" t="n">
-        <v>8.554</v>
-      </c>
-      <c r="F122" t="n">
-        <v>132.2633200133199</v>
-      </c>
-      <c r="G122" t="n">
         <v>42.50129037629036</v>
       </c>
     </row>
@@ -3252,22 +2758,18 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
-        <v>2613701003004</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2613701003004</t>
+        </is>
       </c>
       <c r="C123" t="n">
-        <v>1.152</v>
+        <v>9.446</v>
       </c>
       <c r="D123" t="n">
-        <v>0.396</v>
+        <v>128.5472061821906</v>
       </c>
       <c r="E123" t="n">
-        <v>9.446</v>
-      </c>
-      <c r="F123" t="n">
-        <v>128.5472061821906</v>
-      </c>
-      <c r="G123" t="n">
         <v>44.4500305250305</v>
       </c>
     </row>
@@ -3275,22 +2777,18 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
-        <v>2613701003005</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2613701003005</t>
+        </is>
       </c>
       <c r="C124" t="n">
-        <v>1.85</v>
+        <v>13.788</v>
       </c>
       <c r="D124" t="n">
-        <v>0.638</v>
+        <v>140.8713234161182</v>
       </c>
       <c r="E124" t="n">
-        <v>13.788</v>
-      </c>
-      <c r="F124" t="n">
-        <v>140.8713234161182</v>
-      </c>
-      <c r="G124" t="n">
         <v>49.01047139135372</v>
       </c>
     </row>

--- a/VIDA2/data/RECIFE.xlsx
+++ b/VIDA2/data/RECIFE.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.677354709418838</v>
+        <v>6.649974962443665</v>
       </c>
       <c r="D2" t="n">
-        <v>119.0354902278749</v>
+        <v>129.7314339252244</v>
       </c>
       <c r="E2" t="n">
-        <v>43.44772628840764</v>
+        <v>46.94853427327137</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.913827655310621</v>
+        <v>6.938438438438438</v>
       </c>
       <c r="D3" t="n">
-        <v>135.6456502749087</v>
+        <v>133.6403968348412</v>
       </c>
       <c r="E3" t="n">
-        <v>50.38461872129206</v>
+        <v>44.97961511850396</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.72</v>
+        <v>7.585792896448224</v>
       </c>
       <c r="D4" t="n">
-        <v>124.0815767565766</v>
+        <v>127.3427149639441</v>
       </c>
       <c r="E4" t="n">
-        <v>43.57178377178376</v>
+        <v>47.2110653660213</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11.514</v>
+        <v>11.4525</v>
       </c>
       <c r="D5" t="n">
-        <v>132.8714708636064</v>
+        <v>132.4170391266499</v>
       </c>
       <c r="E5" t="n">
-        <v>49.46564923425535</v>
+        <v>46.46056191970253</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.778</v>
+        <v>11.7475</v>
       </c>
       <c r="D6" t="n">
-        <v>131.8556608080602</v>
+        <v>131.6477914238508</v>
       </c>
       <c r="E6" t="n">
-        <v>46.56798938935157</v>
+        <v>48.00615919824103</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.972</v>
+        <v>6.913239719157472</v>
       </c>
       <c r="D7" t="n">
-        <v>120.588184038184</v>
+        <v>126.959835681589</v>
       </c>
       <c r="E7" t="n">
-        <v>46.28927183927185</v>
+        <v>45.78439085710901</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.1062124248497</v>
+        <v>6.120802005012531</v>
       </c>
       <c r="D8" t="n">
-        <v>137.0729915820096</v>
+        <v>133.2634484702152</v>
       </c>
       <c r="E8" t="n">
-        <v>53.28955168634526</v>
+        <v>48.88202719029785</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.354</v>
+        <v>7.379689844922461</v>
       </c>
       <c r="D9" t="n">
-        <v>129.0300976800976</v>
+        <v>130.7582921970996</v>
       </c>
       <c r="E9" t="n">
-        <v>45.91102786102783</v>
+        <v>46.75730118230785</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.334</v>
+        <v>22.3355</v>
       </c>
       <c r="D10" t="n">
-        <v>126.3138640759426</v>
+        <v>129.456598890587</v>
       </c>
       <c r="E10" t="n">
-        <v>45.56833424062486</v>
+        <v>44.007468043613</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.68</v>
+        <v>7.632632632632633</v>
       </c>
       <c r="D11" t="n">
-        <v>131.6276347835171</v>
+        <v>130.6617845425033</v>
       </c>
       <c r="E11" t="n">
-        <v>44.45806219923866</v>
+        <v>45.83221180443399</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.094</v>
+        <v>10.5325</v>
       </c>
       <c r="D12" t="n">
-        <v>132.8479137993069</v>
+        <v>128.6609561684444</v>
       </c>
       <c r="E12" t="n">
-        <v>52.80131771393378</v>
+        <v>45.89711325611079</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.836</v>
+        <v>10.8675</v>
       </c>
       <c r="D13" t="n">
-        <v>125.7280983979899</v>
+        <v>134.2680201785656</v>
       </c>
       <c r="E13" t="n">
-        <v>43.51124993857189</v>
+        <v>48.08569703000806</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13.064</v>
+        <v>13.2535</v>
       </c>
       <c r="D14" t="n">
-        <v>122.4610101024295</v>
+        <v>128.7759675397799</v>
       </c>
       <c r="E14" t="n">
-        <v>45.07215693364232</v>
+        <v>44.68384296431734</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6.442885771543086</v>
+        <v>6.54937343358396</v>
       </c>
       <c r="D15" t="n">
-        <v>141.419502341346</v>
+        <v>126.5725099183744</v>
       </c>
       <c r="E15" t="n">
-        <v>49.71949115235689</v>
+        <v>46.61847481396353</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8.616</v>
+        <v>8.6275</v>
       </c>
       <c r="D16" t="n">
-        <v>122.6702738438031</v>
+        <v>138.1287424585218</v>
       </c>
       <c r="E16" t="n">
-        <v>41.23561046796339</v>
+        <v>51.83820615658842</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7.304</v>
+        <v>7.171671671671672</v>
       </c>
       <c r="D17" t="n">
-        <v>116.031792064145</v>
+        <v>128.707323356016</v>
       </c>
       <c r="E17" t="n">
-        <v>41.03558663558663</v>
+        <v>44.74200376978154</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.662</v>
+        <v>6.659329664832416</v>
       </c>
       <c r="D18" t="n">
-        <v>143.9214230214231</v>
+        <v>131.8135743973661</v>
       </c>
       <c r="E18" t="n">
-        <v>51.29966144966142</v>
+        <v>46.61354639468693</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.85</v>
+        <v>6.825651302605211</v>
       </c>
       <c r="D19" t="n">
-        <v>134.542574092574</v>
+        <v>131.9482871837579</v>
       </c>
       <c r="E19" t="n">
-        <v>47.79330669330668</v>
+        <v>48.29018954770459</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12.536</v>
+        <v>12.44</v>
       </c>
       <c r="D20" t="n">
-        <v>135.6389145127467</v>
+        <v>128.9732931413269</v>
       </c>
       <c r="E20" t="n">
-        <v>46.01086682457994</v>
+        <v>44.61456312650188</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18.66</v>
+        <v>18.654</v>
       </c>
       <c r="D21" t="n">
-        <v>130.952289695678</v>
+        <v>127.5163955629303</v>
       </c>
       <c r="E21" t="n">
-        <v>46.02136854116291</v>
+        <v>46.17947970853681</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10.738</v>
+        <v>10.872</v>
       </c>
       <c r="D22" t="n">
-        <v>130.7681108794885</v>
+        <v>126.9533039475142</v>
       </c>
       <c r="E22" t="n">
-        <v>44.2453447653138</v>
+        <v>47.18305583176706</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18.218</v>
+        <v>18.247</v>
       </c>
       <c r="D23" t="n">
-        <v>131.0858755174617</v>
+        <v>127.4136762856595</v>
       </c>
       <c r="E23" t="n">
-        <v>46.94940350339067</v>
+        <v>44.98775605385844</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.342</v>
+        <v>7.263131565782891</v>
       </c>
       <c r="D24" t="n">
-        <v>118.6955929691223</v>
+        <v>133.1869534744963</v>
       </c>
       <c r="E24" t="n">
-        <v>39.18750301985592</v>
+        <v>50.82711273438216</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7.657314629258517</v>
+        <v>7.7505</v>
       </c>
       <c r="D25" t="n">
-        <v>118.2002971552659</v>
+        <v>123.1080744418978</v>
       </c>
       <c r="E25" t="n">
-        <v>42.99362847193804</v>
+        <v>43.31231538069769</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.288</v>
+        <v>8.097</v>
       </c>
       <c r="D26" t="n">
-        <v>124.6821595071594</v>
+        <v>134.0560761134289</v>
       </c>
       <c r="E26" t="n">
-        <v>41.22920135420134</v>
+        <v>46.47106594386005</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11.774</v>
+        <v>11.9545</v>
       </c>
       <c r="D27" t="n">
-        <v>128.4887235141879</v>
+        <v>128.8070027816217</v>
       </c>
       <c r="E27" t="n">
-        <v>40.60063966820933</v>
+        <v>45.69209379685675</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11.928</v>
+        <v>12.2875</v>
       </c>
       <c r="D28" t="n">
-        <v>127.9946757465475</v>
+        <v>130.6645628020107</v>
       </c>
       <c r="E28" t="n">
-        <v>47.04830258365793</v>
+        <v>47.10642406614855</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.474</v>
+        <v>8.34</v>
       </c>
       <c r="D29" t="n">
-        <v>148.2035100520393</v>
+        <v>152.0590445873876</v>
       </c>
       <c r="E29" t="n">
-        <v>53.38642076877367</v>
+        <v>56.29704645125286</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10.668</v>
+        <v>10.5485</v>
       </c>
       <c r="D30" t="n">
-        <v>125.7319066898014</v>
+        <v>137.4192369611586</v>
       </c>
       <c r="E30" t="n">
-        <v>46.96566843888824</v>
+        <v>47.52544282324352</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15.93</v>
+        <v>16.1945</v>
       </c>
       <c r="D31" t="n">
-        <v>120.5443998190846</v>
+        <v>124.6409603218578</v>
       </c>
       <c r="E31" t="n">
-        <v>42.76911406123273</v>
+        <v>44.84128811471786</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25.544</v>
+        <v>25.8615</v>
       </c>
       <c r="D32" t="n">
-        <v>128.5669714234793</v>
+        <v>129.4944904839379</v>
       </c>
       <c r="E32" t="n">
-        <v>47.52976806860402</v>
+        <v>45.78848274301526</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15.306</v>
+        <v>15.2925</v>
       </c>
       <c r="D33" t="n">
-        <v>118.892823246286</v>
+        <v>117.0251232885475</v>
       </c>
       <c r="E33" t="n">
-        <v>43.09987235089334</v>
+        <v>42.12649504191552</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15.898</v>
+        <v>16.3005</v>
       </c>
       <c r="D34" t="n">
-        <v>120.8558046465382</v>
+        <v>124.7834699166907</v>
       </c>
       <c r="E34" t="n">
-        <v>43.34669729441969</v>
+        <v>44.00577107735339</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17.644</v>
+        <v>17.6725</v>
       </c>
       <c r="D35" t="n">
-        <v>130.9271818849692</v>
+        <v>129.5146718830094</v>
       </c>
       <c r="E35" t="n">
-        <v>44.92694715363748</v>
+        <v>45.47722480309881</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23.71</v>
+        <v>23.9805</v>
       </c>
       <c r="D36" t="n">
-        <v>125.5883027419431</v>
+        <v>126.1650703526073</v>
       </c>
       <c r="E36" t="n">
-        <v>46.3983833915208</v>
+        <v>44.66551955473342</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>21.36</v>
+        <v>21.791</v>
       </c>
       <c r="D37" t="n">
-        <v>128.0261007619868</v>
+        <v>127.5212833376179</v>
       </c>
       <c r="E37" t="n">
-        <v>45.66381823750562</v>
+        <v>46.45274616563028</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>18.838</v>
+        <v>18.522</v>
       </c>
       <c r="D38" t="n">
-        <v>125.1747581775322</v>
+        <v>128.8183493095783</v>
       </c>
       <c r="E38" t="n">
-        <v>42.54482473575154</v>
+        <v>46.04668986085086</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20.412</v>
+        <v>20.5665</v>
       </c>
       <c r="D39" t="n">
-        <v>125.7701540234484</v>
+        <v>130.1464545179676</v>
       </c>
       <c r="E39" t="n">
-        <v>48.58703283327011</v>
+        <v>46.80994899562068</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19.186</v>
+        <v>19.12</v>
       </c>
       <c r="D40" t="n">
-        <v>132.0038391826423</v>
+        <v>132.8022564269794</v>
       </c>
       <c r="E40" t="n">
-        <v>49.84099766371592</v>
+        <v>45.65242765311064</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>12.608</v>
+        <v>12.761</v>
       </c>
       <c r="D41" t="n">
-        <v>124.6828519094612</v>
+        <v>126.9346905201031</v>
       </c>
       <c r="E41" t="n">
-        <v>44.91811557596319</v>
+        <v>45.45805696369475</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22.52</v>
+        <v>22.897</v>
       </c>
       <c r="D42" t="n">
-        <v>115.3569201103519</v>
+        <v>121.8479972049839</v>
       </c>
       <c r="E42" t="n">
-        <v>41.39683575593855</v>
+        <v>44.46623832995339</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>14.91</v>
+        <v>14.684</v>
       </c>
       <c r="D43" t="n">
-        <v>120.1990176230942</v>
+        <v>121.9209477417969</v>
       </c>
       <c r="E43" t="n">
-        <v>41.57770000859578</v>
+        <v>42.85204791765769</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>16.438</v>
+        <v>16.745</v>
       </c>
       <c r="D44" t="n">
-        <v>123.7369399260862</v>
+        <v>126.7826437681993</v>
       </c>
       <c r="E44" t="n">
-        <v>41.33793872958308</v>
+        <v>45.62170559648573</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17.844</v>
+        <v>17.493</v>
       </c>
       <c r="D45" t="n">
-        <v>125.3943432924589</v>
+        <v>129.2702692154069</v>
       </c>
       <c r="E45" t="n">
-        <v>44.47834405824249</v>
+        <v>45.73744527357551</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>13.306</v>
+        <v>13.154</v>
       </c>
       <c r="D46" t="n">
-        <v>127.637077095591</v>
+        <v>129.7507060298099</v>
       </c>
       <c r="E46" t="n">
-        <v>42.92643257155642</v>
+        <v>44.94361927645116</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>13.472</v>
+        <v>13.463</v>
       </c>
       <c r="D47" t="n">
-        <v>134.0428715144505</v>
+        <v>128.669599249033</v>
       </c>
       <c r="E47" t="n">
-        <v>47.63411618481275</v>
+        <v>48.16052314588385</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>11.876</v>
+        <v>11.6925</v>
       </c>
       <c r="D48" t="n">
-        <v>138.1443929965131</v>
+        <v>131.5219984139524</v>
       </c>
       <c r="E48" t="n">
-        <v>47.04661321650485</v>
+        <v>46.7048952195894</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>14.324</v>
+        <v>14.402</v>
       </c>
       <c r="D49" t="n">
-        <v>129.6480503822865</v>
+        <v>134.0052832771006</v>
       </c>
       <c r="E49" t="n">
-        <v>48.60715711381141</v>
+        <v>48.08701064732335</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15.602</v>
+        <v>15.294</v>
       </c>
       <c r="D50" t="n">
-        <v>127.1977112764244</v>
+        <v>130.470306959048</v>
       </c>
       <c r="E50" t="n">
-        <v>43.57200030138915</v>
+        <v>45.75350552308969</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13.534</v>
+        <v>13.6495</v>
       </c>
       <c r="D51" t="n">
-        <v>125.6181730006033</v>
+        <v>123.8997396842822</v>
       </c>
       <c r="E51" t="n">
-        <v>42.63781464493537</v>
+        <v>43.1241971729767</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>11.648</v>
+        <v>11.6275</v>
       </c>
       <c r="D52" t="n">
-        <v>128.675369960277</v>
+        <v>121.4561523155318</v>
       </c>
       <c r="E52" t="n">
-        <v>48.31472081410159</v>
+        <v>42.47156022642791</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10.346</v>
+        <v>10.3285</v>
       </c>
       <c r="D53" t="n">
-        <v>129.9141171178322</v>
+        <v>129.2325811873023</v>
       </c>
       <c r="E53" t="n">
-        <v>47.1524626474317</v>
+        <v>46.18397254834938</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7.138</v>
+        <v>6.926426426426427</v>
       </c>
       <c r="D54" t="n">
-        <v>140.0979936729936</v>
+        <v>130.3876103712703</v>
       </c>
       <c r="E54" t="n">
-        <v>47.89498001998</v>
+        <v>46.69608489052933</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6.926</v>
+        <v>7.014514514514515</v>
       </c>
       <c r="D55" t="n">
-        <v>121.4785603285602</v>
+        <v>126.650704836979</v>
       </c>
       <c r="E55" t="n">
-        <v>46.11858696858695</v>
+        <v>46.18974431065933</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>10.766</v>
+        <v>10.8675</v>
       </c>
       <c r="D56" t="n">
-        <v>135.0467608037704</v>
+        <v>114.630853245911</v>
       </c>
       <c r="E56" t="n">
-        <v>45.98044801177791</v>
+        <v>41.46766391374354</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15.334</v>
+        <v>15.0375</v>
       </c>
       <c r="D57" t="n">
-        <v>134.6109727512433</v>
+        <v>124.1901014204192</v>
       </c>
       <c r="E57" t="n">
-        <v>45.8286835632622</v>
+        <v>45.42341501370421</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>13.222</v>
+        <v>13.486</v>
       </c>
       <c r="D58" t="n">
-        <v>125.875289243892</v>
+        <v>122.8245290412138</v>
       </c>
       <c r="E58" t="n">
-        <v>45.35437966708663</v>
+        <v>43.84582638803187</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>12.662</v>
+        <v>12.3355</v>
       </c>
       <c r="D59" t="n">
-        <v>112.0651626151626</v>
+        <v>116.7412285000534</v>
       </c>
       <c r="E59" t="n">
-        <v>36.17766684639746</v>
+        <v>42.80380153528282</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19.08</v>
+        <v>18.971</v>
       </c>
       <c r="D60" t="n">
-        <v>122.1841260640534</v>
+        <v>121.325038705538</v>
       </c>
       <c r="E60" t="n">
-        <v>45.98228491687002</v>
+        <v>43.23173300808482</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.651999999999999</v>
+        <v>8.764382191095548</v>
       </c>
       <c r="D61" t="n">
-        <v>126.0037830590461</v>
+        <v>123.8635880217697</v>
       </c>
       <c r="E61" t="n">
-        <v>45.60757020757017</v>
+        <v>46.67791040499448</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7.086</v>
+        <v>7.029</v>
       </c>
       <c r="D62" t="n">
-        <v>135.1202090307353</v>
+        <v>129.3507527195024</v>
       </c>
       <c r="E62" t="n">
-        <v>50.12474367737524</v>
+        <v>48.11335470085466</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>10.584</v>
+        <v>10.459</v>
       </c>
       <c r="D63" t="n">
-        <v>127.7274540990484</v>
+        <v>128.731006449709</v>
       </c>
       <c r="E63" t="n">
-        <v>47.70943859202369</v>
+        <v>46.76368343698815</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20.686</v>
+        <v>20.6605</v>
       </c>
       <c r="D64" t="n">
-        <v>117.8459740197815</v>
+        <v>123.7389017037715</v>
       </c>
       <c r="E64" t="n">
-        <v>40.27179856369624</v>
+        <v>44.57766923352391</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>11.334</v>
+        <v>10.9765</v>
       </c>
       <c r="D65" t="n">
-        <v>119.6655490708122</v>
+        <v>126.4123105867298</v>
       </c>
       <c r="E65" t="n">
-        <v>43.91344713078458</v>
+        <v>45.53915532352055</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>12.36</v>
+        <v>12.4945</v>
       </c>
       <c r="D66" t="n">
-        <v>132.9402700240935</v>
+        <v>129.1694093509875</v>
       </c>
       <c r="E66" t="n">
-        <v>47.69902546713688</v>
+        <v>43.97743662062121</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.066265060240964</v>
+        <v>8.045500000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>126.5631481825203</v>
+        <v>127.0651827833327</v>
       </c>
       <c r="E67" t="n">
-        <v>44.52811802209389</v>
+        <v>43.0800405068787</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6.016064257028113</v>
+        <v>6.02061337355455</v>
       </c>
       <c r="D68" t="n">
-        <v>127.0139666224004</v>
+        <v>125.4931552442863</v>
       </c>
       <c r="E68" t="n">
-        <v>55.50327628640878</v>
+        <v>46.19885588965531</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7.6</v>
+        <v>7.5235</v>
       </c>
       <c r="D69" t="n">
-        <v>124.3577450327449</v>
+        <v>132.0353925078189</v>
       </c>
       <c r="E69" t="n">
-        <v>44.2455155955156</v>
+        <v>45.51286511690922</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>14.438</v>
+        <v>14.274</v>
       </c>
       <c r="D70" t="n">
-        <v>135.8316221707977</v>
+        <v>128.5878117482884</v>
       </c>
       <c r="E70" t="n">
-        <v>47.99352510312057</v>
+        <v>45.93682618469701</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25.614</v>
+        <v>25.866</v>
       </c>
       <c r="D71" t="n">
-        <v>125.203200717401</v>
+        <v>127.741185777327</v>
       </c>
       <c r="E71" t="n">
-        <v>45.97383711454432</v>
+        <v>45.29757225855265</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7.16</v>
+        <v>7.1895</v>
       </c>
       <c r="D72" t="n">
-        <v>121.5028665778665</v>
+        <v>127.0766802641799</v>
       </c>
       <c r="E72" t="n">
-        <v>43.84612609612609</v>
+        <v>43.83072483072482</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7.01</v>
+        <v>6.96946946946947</v>
       </c>
       <c r="D73" t="n">
-        <v>132.9585192585192</v>
+        <v>120.2138815292409</v>
       </c>
       <c r="E73" t="n">
-        <v>45.46873126873125</v>
+        <v>44.28925609481164</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7.856</v>
+        <v>7.937</v>
       </c>
       <c r="D74" t="n">
-        <v>125.6575174825174</v>
+        <v>126.8535164891006</v>
       </c>
       <c r="E74" t="n">
-        <v>44.20414585414584</v>
+        <v>47.08999369653391</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7.708</v>
+        <v>7.823411705852926</v>
       </c>
       <c r="D75" t="n">
-        <v>133.5920218670218</v>
+        <v>131.9792714089706</v>
       </c>
       <c r="E75" t="n">
-        <v>50.95408757908753</v>
+        <v>46.72550356332646</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10.292</v>
+        <v>10.118</v>
       </c>
       <c r="D76" t="n">
-        <v>122.9414532749672</v>
+        <v>129.2420426565699</v>
       </c>
       <c r="E76" t="n">
-        <v>46.36539979628215</v>
+        <v>46.33790926276195</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8.056112224448897</v>
+        <v>7.719859929964983</v>
       </c>
       <c r="D77" t="n">
-        <v>126.2520653537981</v>
+        <v>120.7928963012384</v>
       </c>
       <c r="E77" t="n">
-        <v>44.03859137443951</v>
+        <v>45.26989691851533</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>16.6</v>
+        <v>16.5335</v>
       </c>
       <c r="D78" t="n">
-        <v>122.6489761278269</v>
+        <v>126.1277279642244</v>
       </c>
       <c r="E78" t="n">
-        <v>44.27714553993532</v>
+        <v>46.1446545226325</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>16.436</v>
+        <v>16.54</v>
       </c>
       <c r="D79" t="n">
-        <v>120.8660084948778</v>
+        <v>126.5544665236122</v>
       </c>
       <c r="E79" t="n">
-        <v>43.55706373869719</v>
+        <v>45.08473711454</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>14.18</v>
+        <v>14.5085</v>
       </c>
       <c r="D80" t="n">
-        <v>129.7533091186046</v>
+        <v>124.3770593341352</v>
       </c>
       <c r="E80" t="n">
-        <v>43.9908039351504</v>
+        <v>43.20795366916895</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>23.696</v>
+        <v>23.598</v>
       </c>
       <c r="D81" t="n">
-        <v>123.9549826715465</v>
+        <v>122.5636442493042</v>
       </c>
       <c r="E81" t="n">
-        <v>44.77523750614001</v>
+        <v>44.18208509630079</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>26.53</v>
+        <v>26.5085</v>
       </c>
       <c r="D82" t="n">
-        <v>120.1711261508253</v>
+        <v>120.63136665423</v>
       </c>
       <c r="E82" t="n">
-        <v>44.11601141828576</v>
+        <v>42.9280027035755</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>13.716</v>
+        <v>13.9365</v>
       </c>
       <c r="D83" t="n">
-        <v>132.0632020462301</v>
+        <v>124.8470269011049</v>
       </c>
       <c r="E83" t="n">
-        <v>44.65667216945718</v>
+        <v>43.11978865447751</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>21.168</v>
+        <v>21.024</v>
       </c>
       <c r="D84" t="n">
-        <v>127.0945305581339</v>
+        <v>127.5839427738358</v>
       </c>
       <c r="E84" t="n">
-        <v>42.38744662053396</v>
+        <v>46.30212040548045</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>15.168</v>
+        <v>15.0915</v>
       </c>
       <c r="D85" t="n">
-        <v>126.2633694875738</v>
+        <v>127.9914735997684</v>
       </c>
       <c r="E85" t="n">
-        <v>46.11933640421268</v>
+        <v>47.25187174196845</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>14.81</v>
+        <v>14.8785</v>
       </c>
       <c r="D86" t="n">
-        <v>136.2240570880489</v>
+        <v>129.9134516446246</v>
       </c>
       <c r="E86" t="n">
-        <v>47.12042635958438</v>
+        <v>44.73113815458203</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>15.446</v>
+        <v>15.596</v>
       </c>
       <c r="D87" t="n">
-        <v>131.4503229205878</v>
+        <v>129.6661384892656</v>
       </c>
       <c r="E87" t="n">
-        <v>44.86930200580056</v>
+        <v>46.97657717745316</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>19.612</v>
+        <v>19.7665</v>
       </c>
       <c r="D88" t="n">
-        <v>116.7584726640631</v>
+        <v>112.2833459531465</v>
       </c>
       <c r="E88" t="n">
-        <v>42.21785481980501</v>
+        <v>40.63064326304643</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>13.28</v>
+        <v>13.227</v>
       </c>
       <c r="D89" t="n">
-        <v>112.9114116010671</v>
+        <v>112.1002795156938</v>
       </c>
       <c r="E89" t="n">
-        <v>39.80981956303667</v>
+        <v>39.81986263986532</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>16.862</v>
+        <v>16.8305</v>
       </c>
       <c r="D90" t="n">
-        <v>120.21998221272</v>
+        <v>121.3895949443436</v>
       </c>
       <c r="E90" t="n">
-        <v>45.7364037392634</v>
+        <v>44.1763766464501</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>14.604</v>
+        <v>14.679</v>
       </c>
       <c r="D91" t="n">
-        <v>122.8999931677929</v>
+        <v>124.0033817611844</v>
       </c>
       <c r="E91" t="n">
-        <v>40.90431148658705</v>
+        <v>44.00771472826289</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>20.3</v>
+        <v>20.312</v>
       </c>
       <c r="D92" t="n">
-        <v>125.8722472477206</v>
+        <v>126.1411271220448</v>
       </c>
       <c r="E92" t="n">
-        <v>46.27366377669723</v>
+        <v>43.94535142987371</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>14.964</v>
+        <v>14.982</v>
       </c>
       <c r="D93" t="n">
-        <v>131.3776811823554</v>
+        <v>132.2561719079406</v>
       </c>
       <c r="E93" t="n">
-        <v>43.7250472256738</v>
+        <v>47.49528456700314</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>15.826</v>
+        <v>16.193</v>
       </c>
       <c r="D94" t="n">
-        <v>127.3766529158508</v>
+        <v>126.7968348689772</v>
       </c>
       <c r="E94" t="n">
-        <v>45.34848198427429</v>
+        <v>46.78739642552719</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>13.612</v>
+        <v>13.82</v>
       </c>
       <c r="D95" t="n">
-        <v>133.7507740210762</v>
+        <v>131.1514928234943</v>
       </c>
       <c r="E95" t="n">
-        <v>51.35288325328371</v>
+        <v>46.75987955194889</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>21.64</v>
+        <v>21.7585</v>
       </c>
       <c r="D96" t="n">
-        <v>123.067572891638</v>
+        <v>127.4643369239679</v>
       </c>
       <c r="E96" t="n">
-        <v>44.0960868057128</v>
+        <v>45.48007128949829</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>13.464</v>
+        <v>13.264</v>
       </c>
       <c r="D97" t="n">
-        <v>123.9023169684894</v>
+        <v>120.2934712350771</v>
       </c>
       <c r="E97" t="n">
-        <v>43.79857991771166</v>
+        <v>44.19166408930192</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>18.082</v>
+        <v>17.8155</v>
       </c>
       <c r="D98" t="n">
-        <v>123.4278497066858</v>
+        <v>123.6321959419759</v>
       </c>
       <c r="E98" t="n">
-        <v>45.52292913718224</v>
+        <v>43.96118215075941</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>20.57</v>
+        <v>20.3495</v>
       </c>
       <c r="D99" t="n">
-        <v>119.2010206599246</v>
+        <v>119.3097879536246</v>
       </c>
       <c r="E99" t="n">
-        <v>41.30010087265975</v>
+        <v>44.17867606424392</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>20.366</v>
+        <v>20.481</v>
       </c>
       <c r="D100" t="n">
-        <v>123.9009600313214</v>
+        <v>130.8127628938641</v>
       </c>
       <c r="E100" t="n">
-        <v>45.50848329502769</v>
+        <v>46.71343449037996</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>24.838</v>
+        <v>25.272</v>
       </c>
       <c r="D101" t="n">
-        <v>125.5202367391719</v>
+        <v>123.9484294354493</v>
       </c>
       <c r="E101" t="n">
-        <v>47.48730256676944</v>
+        <v>44.22161410871625</v>
       </c>
     </row>
     <row r="102">
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>25.796</v>
+        <v>25.4745</v>
       </c>
       <c r="D102" t="n">
-        <v>119.4040132153814</v>
+        <v>127.4253061415686</v>
       </c>
       <c r="E102" t="n">
-        <v>43.71604104164183</v>
+        <v>44.40175466075984</v>
       </c>
     </row>
     <row r="103">
@@ -2384,13 +2384,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>13.208</v>
+        <v>13.3855</v>
       </c>
       <c r="D103" t="n">
-        <v>125.6874482235433</v>
+        <v>130.3469342330205</v>
       </c>
       <c r="E103" t="n">
-        <v>46.17305627211064</v>
+        <v>47.4749954752027</v>
       </c>
     </row>
     <row r="104">
@@ -2403,13 +2403,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>17.494</v>
+        <v>17.477</v>
       </c>
       <c r="D104" t="n">
-        <v>132.976340869064</v>
+        <v>128.9836963402206</v>
       </c>
       <c r="E104" t="n">
-        <v>46.25621214976271</v>
+        <v>47.27883223381925</v>
       </c>
     </row>
     <row r="105">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>27.094</v>
+        <v>26.6485</v>
       </c>
       <c r="D105" t="n">
-        <v>124.5344018707134</v>
+        <v>125.6274576841392</v>
       </c>
       <c r="E105" t="n">
-        <v>46.46365386426288</v>
+        <v>43.15911702770002</v>
       </c>
     </row>
     <row r="106">
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>29.034</v>
+        <v>28.989</v>
       </c>
       <c r="D106" t="n">
-        <v>130.097596580898</v>
+        <v>125.179143541082</v>
       </c>
       <c r="E106" t="n">
-        <v>46.32858077287074</v>
+        <v>44.30393601496417</v>
       </c>
     </row>
     <row r="107">
@@ -2460,13 +2460,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>15.2</v>
+        <v>15.009</v>
       </c>
       <c r="D107" t="n">
-        <v>121.5440765652389</v>
+        <v>126.1181743638509</v>
       </c>
       <c r="E107" t="n">
-        <v>47.47640780267377</v>
+        <v>45.31775205835118</v>
       </c>
     </row>
     <row r="108">
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>19.836</v>
+        <v>19.9125</v>
       </c>
       <c r="D108" t="n">
-        <v>131.6428676926425</v>
+        <v>127.1956170957129</v>
       </c>
       <c r="E108" t="n">
-        <v>46.42049676679788</v>
+        <v>45.21369954159642</v>
       </c>
     </row>
     <row r="109">
@@ -2498,13 +2498,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>17.806</v>
+        <v>17.9625</v>
       </c>
       <c r="D109" t="n">
-        <v>151.8708081349457</v>
+        <v>147.9949421311501</v>
       </c>
       <c r="E109" t="n">
-        <v>56.6410305511133</v>
+        <v>51.86410075010371</v>
       </c>
     </row>
     <row r="110">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>23.358</v>
+        <v>22.883</v>
       </c>
       <c r="D110" t="n">
-        <v>128.7236954465658</v>
+        <v>128.9179550539348</v>
       </c>
       <c r="E110" t="n">
-        <v>43.63730677311193</v>
+        <v>45.55674412892041</v>
       </c>
     </row>
     <row r="111">
@@ -2536,13 +2536,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>19.694</v>
+        <v>19.727</v>
       </c>
       <c r="D111" t="n">
-        <v>109.8229092403555</v>
+        <v>121.4748164045033</v>
       </c>
       <c r="E111" t="n">
-        <v>38.41663310964277</v>
+        <v>43.36813339860566</v>
       </c>
     </row>
     <row r="112">
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>24.692</v>
+        <v>24.7625</v>
       </c>
       <c r="D112" t="n">
-        <v>119.1239751366408</v>
+        <v>117.0944783767474</v>
       </c>
       <c r="E112" t="n">
-        <v>40.37035934701603</v>
+        <v>41.9967559698696</v>
       </c>
     </row>
     <row r="113">
@@ -2574,13 +2574,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>16.826</v>
+        <v>16.58</v>
       </c>
       <c r="D113" t="n">
-        <v>112.1169515769009</v>
+        <v>123.9973874877771</v>
       </c>
       <c r="E113" t="n">
-        <v>43.83550180391327</v>
+        <v>44.19497011580872</v>
       </c>
     </row>
     <row r="114">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>16.476</v>
+        <v>16.5235</v>
       </c>
       <c r="D114" t="n">
-        <v>124.6542565834597</v>
+        <v>126.7343884660657</v>
       </c>
       <c r="E114" t="n">
-        <v>44.20341500781465</v>
+        <v>45.18231619522589</v>
       </c>
     </row>
     <row r="115">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>19.968</v>
+        <v>19.7</v>
       </c>
       <c r="D115" t="n">
-        <v>120.9019380950355</v>
+        <v>126.2139228878769</v>
       </c>
       <c r="E115" t="n">
-        <v>41.82546609277443</v>
+        <v>44.55591625209859</v>
       </c>
     </row>
     <row r="116">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>12.738</v>
+        <v>12.809</v>
       </c>
       <c r="D116" t="n">
-        <v>128.6270901467327</v>
+        <v>128.1251274412643</v>
       </c>
       <c r="E116" t="n">
-        <v>46.77634548973556</v>
+        <v>44.89084887432</v>
       </c>
     </row>
     <row r="117">
@@ -2650,13 +2650,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>21.302</v>
+        <v>21.3765</v>
       </c>
       <c r="D117" t="n">
-        <v>126.9983107413824</v>
+        <v>128.6489220521939</v>
       </c>
       <c r="E117" t="n">
-        <v>44.45630128714046</v>
+        <v>45.67041408650556</v>
       </c>
     </row>
     <row r="118">
@@ -2669,13 +2669,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>18.004</v>
+        <v>18.144</v>
       </c>
       <c r="D118" t="n">
-        <v>127.2562279072952</v>
+        <v>125.2472957834682</v>
       </c>
       <c r="E118" t="n">
-        <v>45.6330543667354</v>
+        <v>45.11751597779981</v>
       </c>
     </row>
     <row r="119">
@@ -2688,13 +2688,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>14.202</v>
+        <v>14.0655</v>
       </c>
       <c r="D119" t="n">
-        <v>121.0168529254206</v>
+        <v>126.7210974336432</v>
       </c>
       <c r="E119" t="n">
-        <v>42.03315414771733</v>
+        <v>44.27757149653907</v>
       </c>
     </row>
     <row r="120">
@@ -2707,13 +2707,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>7.006</v>
+        <v>7.119059529764883</v>
       </c>
       <c r="D120" t="n">
-        <v>129.119325119325</v>
+        <v>124.6391059610165</v>
       </c>
       <c r="E120" t="n">
-        <v>42.59444444444441</v>
+        <v>43.39085265798622</v>
       </c>
     </row>
     <row r="121">
@@ -2726,13 +2726,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8.635999999999999</v>
+        <v>8.530265132566283</v>
       </c>
       <c r="D121" t="n">
-        <v>127.1872493863205</v>
+        <v>139.0617255145104</v>
       </c>
       <c r="E121" t="n">
-        <v>45.36474987001302</v>
+        <v>46.39239795310473</v>
       </c>
     </row>
     <row r="122">
@@ -2745,13 +2745,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8.554</v>
+        <v>8.707000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>132.2633200133199</v>
+        <v>134.7255605076037</v>
       </c>
       <c r="E122" t="n">
-        <v>42.50129037629036</v>
+        <v>51.87794067602499</v>
       </c>
     </row>
     <row r="123">
@@ -2764,13 +2764,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>9.446</v>
+        <v>9.522500000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>128.5472061821906</v>
+        <v>133.849940789774</v>
       </c>
       <c r="E123" t="n">
-        <v>44.4500305250305</v>
+        <v>47.89639686594789</v>
       </c>
     </row>
     <row r="124">
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>13.788</v>
+        <v>13.454</v>
       </c>
       <c r="D124" t="n">
-        <v>140.8713234161182</v>
+        <v>134.3126254992172</v>
       </c>
       <c r="E124" t="n">
-        <v>49.01047139135372</v>
+        <v>47.71511252903949</v>
       </c>
     </row>
   </sheetData>

--- a/VIDA2/data/RECIFE.xlsx
+++ b/VIDA2/data/RECIFE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.677354709418838</v>
+        <v>6.649974962443665</v>
       </c>
       <c r="D2" t="n">
-        <v>119.0354902278749</v>
+        <v>129.7314339252244</v>
       </c>
       <c r="E2" t="n">
-        <v>43.44772628840764</v>
+        <v>46.94853427327137</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.913827655310621</v>
+        <v>6.938438438438438</v>
       </c>
       <c r="D3" t="n">
-        <v>135.6456502749087</v>
+        <v>133.6403968348412</v>
       </c>
       <c r="E3" t="n">
-        <v>50.38461872129206</v>
+        <v>44.97961511850396</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.72</v>
+        <v>7.585792896448224</v>
       </c>
       <c r="D4" t="n">
-        <v>124.0815767565766</v>
+        <v>127.3427149639441</v>
       </c>
       <c r="E4" t="n">
-        <v>43.57178377178376</v>
+        <v>47.2110653660213</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11.514</v>
+        <v>11.4525</v>
       </c>
       <c r="D5" t="n">
-        <v>132.8714708636064</v>
+        <v>132.4170391266499</v>
       </c>
       <c r="E5" t="n">
-        <v>49.46564923425535</v>
+        <v>46.46056191970253</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.778</v>
+        <v>11.7475</v>
       </c>
       <c r="D6" t="n">
-        <v>131.8556608080602</v>
+        <v>131.6477914238508</v>
       </c>
       <c r="E6" t="n">
-        <v>46.56798938935157</v>
+        <v>48.00615919824103</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.972</v>
+        <v>6.913239719157472</v>
       </c>
       <c r="D7" t="n">
-        <v>120.588184038184</v>
+        <v>126.959835681589</v>
       </c>
       <c r="E7" t="n">
-        <v>46.28927183927185</v>
+        <v>45.78439085710901</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.1062124248497</v>
+        <v>6.120802005012531</v>
       </c>
       <c r="D8" t="n">
-        <v>137.0729915820096</v>
+        <v>133.2634484702152</v>
       </c>
       <c r="E8" t="n">
-        <v>53.28955168634526</v>
+        <v>48.88202719029785</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.354</v>
+        <v>7.379689844922461</v>
       </c>
       <c r="D9" t="n">
-        <v>129.0300976800976</v>
+        <v>130.7582921970996</v>
       </c>
       <c r="E9" t="n">
-        <v>45.91102786102783</v>
+        <v>46.75730118230785</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.334</v>
+        <v>22.3355</v>
       </c>
       <c r="D10" t="n">
-        <v>126.3138640759426</v>
+        <v>129.456598890587</v>
       </c>
       <c r="E10" t="n">
-        <v>45.56833424062486</v>
+        <v>44.007468043613</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.68</v>
+        <v>7.632632632632633</v>
       </c>
       <c r="D11" t="n">
-        <v>131.6276347835171</v>
+        <v>130.6617845425033</v>
       </c>
       <c r="E11" t="n">
-        <v>44.45806219923866</v>
+        <v>45.83221180443399</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.094</v>
+        <v>10.5325</v>
       </c>
       <c r="D12" t="n">
-        <v>132.8479137993069</v>
+        <v>128.6609561684444</v>
       </c>
       <c r="E12" t="n">
-        <v>52.80131771393378</v>
+        <v>45.89711325611079</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.836</v>
+        <v>10.8675</v>
       </c>
       <c r="D13" t="n">
-        <v>125.7280983979899</v>
+        <v>134.2680201785656</v>
       </c>
       <c r="E13" t="n">
-        <v>43.51124993857189</v>
+        <v>48.08569703000806</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13.064</v>
+        <v>13.2535</v>
       </c>
       <c r="D14" t="n">
-        <v>122.4610101024295</v>
+        <v>128.7759675397799</v>
       </c>
       <c r="E14" t="n">
-        <v>45.07215693364232</v>
+        <v>44.68384296431734</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6.442885771543086</v>
+        <v>6.54937343358396</v>
       </c>
       <c r="D15" t="n">
-        <v>141.419502341346</v>
+        <v>126.5725099183744</v>
       </c>
       <c r="E15" t="n">
-        <v>49.71949115235689</v>
+        <v>46.61847481396353</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8.616</v>
+        <v>8.6275</v>
       </c>
       <c r="D16" t="n">
-        <v>122.6702738438031</v>
+        <v>138.1287424585218</v>
       </c>
       <c r="E16" t="n">
-        <v>41.23561046796339</v>
+        <v>51.83820615658842</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7.304</v>
+        <v>7.171671671671672</v>
       </c>
       <c r="D17" t="n">
-        <v>116.031792064145</v>
+        <v>128.707323356016</v>
       </c>
       <c r="E17" t="n">
-        <v>41.03558663558663</v>
+        <v>44.74200376978154</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.662</v>
+        <v>6.659329664832416</v>
       </c>
       <c r="D18" t="n">
-        <v>143.9214230214231</v>
+        <v>131.8135743973661</v>
       </c>
       <c r="E18" t="n">
-        <v>51.29966144966142</v>
+        <v>46.61354639468693</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.85</v>
+        <v>6.825651302605211</v>
       </c>
       <c r="D19" t="n">
-        <v>134.542574092574</v>
+        <v>131.9482871837579</v>
       </c>
       <c r="E19" t="n">
-        <v>47.79330669330668</v>
+        <v>48.29018954770459</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12.536</v>
+        <v>12.44</v>
       </c>
       <c r="D20" t="n">
-        <v>135.6389145127467</v>
+        <v>128.9732931413269</v>
       </c>
       <c r="E20" t="n">
-        <v>46.01086682457994</v>
+        <v>44.61456312650188</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18.66</v>
+        <v>18.654</v>
       </c>
       <c r="D21" t="n">
-        <v>130.952289695678</v>
+        <v>127.5163955629303</v>
       </c>
       <c r="E21" t="n">
-        <v>46.02136854116291</v>
+        <v>46.17947970853681</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10.738</v>
+        <v>10.872</v>
       </c>
       <c r="D22" t="n">
-        <v>130.7681108794885</v>
+        <v>126.9533039475142</v>
       </c>
       <c r="E22" t="n">
-        <v>44.2453447653138</v>
+        <v>47.18305583176706</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18.218</v>
+        <v>18.247</v>
       </c>
       <c r="D23" t="n">
-        <v>131.0858755174617</v>
+        <v>127.4136762856595</v>
       </c>
       <c r="E23" t="n">
-        <v>46.94940350339067</v>
+        <v>44.98775605385844</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.342</v>
+        <v>7.263131565782891</v>
       </c>
       <c r="D24" t="n">
-        <v>118.6955929691223</v>
+        <v>133.1869534744963</v>
       </c>
       <c r="E24" t="n">
-        <v>39.18750301985592</v>
+        <v>50.82711273438216</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7.657314629258517</v>
+        <v>7.7505</v>
       </c>
       <c r="D25" t="n">
-        <v>118.2002971552659</v>
+        <v>123.1080744418978</v>
       </c>
       <c r="E25" t="n">
-        <v>42.99362847193804</v>
+        <v>43.31231538069769</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.288</v>
+        <v>8.097</v>
       </c>
       <c r="D26" t="n">
-        <v>124.6821595071594</v>
+        <v>134.0560761134289</v>
       </c>
       <c r="E26" t="n">
-        <v>41.22920135420134</v>
+        <v>46.47106594386005</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11.774</v>
+        <v>11.9545</v>
       </c>
       <c r="D27" t="n">
-        <v>128.4887235141879</v>
+        <v>128.8070027816217</v>
       </c>
       <c r="E27" t="n">
-        <v>40.60063966820933</v>
+        <v>45.69209379685675</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11.928</v>
+        <v>12.2875</v>
       </c>
       <c r="D28" t="n">
-        <v>127.9946757465475</v>
+        <v>130.6645628020107</v>
       </c>
       <c r="E28" t="n">
-        <v>47.04830258365793</v>
+        <v>47.10642406614855</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.474</v>
+        <v>8.34</v>
       </c>
       <c r="D29" t="n">
-        <v>148.2035100520393</v>
+        <v>152.0590445873876</v>
       </c>
       <c r="E29" t="n">
-        <v>53.38642076877367</v>
+        <v>56.29704645125286</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10.668</v>
+        <v>10.5485</v>
       </c>
       <c r="D30" t="n">
-        <v>125.7319066898014</v>
+        <v>137.4192369611586</v>
       </c>
       <c r="E30" t="n">
-        <v>46.96566843888824</v>
+        <v>47.52544282324352</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15.93</v>
+        <v>16.1945</v>
       </c>
       <c r="D31" t="n">
-        <v>120.5443998190846</v>
+        <v>124.6409603218578</v>
       </c>
       <c r="E31" t="n">
-        <v>42.76911406123273</v>
+        <v>44.84128811471786</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25.544</v>
+        <v>25.8615</v>
       </c>
       <c r="D32" t="n">
-        <v>128.5669714234793</v>
+        <v>129.4944904839379</v>
       </c>
       <c r="E32" t="n">
-        <v>47.52976806860402</v>
+        <v>45.78848274301526</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15.306</v>
+        <v>15.2925</v>
       </c>
       <c r="D33" t="n">
-        <v>118.892823246286</v>
+        <v>117.0251232885475</v>
       </c>
       <c r="E33" t="n">
-        <v>43.09987235089334</v>
+        <v>42.12649504191552</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15.898</v>
+        <v>16.3005</v>
       </c>
       <c r="D34" t="n">
-        <v>120.8558046465382</v>
+        <v>124.7834699166907</v>
       </c>
       <c r="E34" t="n">
-        <v>43.34669729441969</v>
+        <v>44.00577107735339</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17.644</v>
+        <v>17.6725</v>
       </c>
       <c r="D35" t="n">
-        <v>130.9271818849692</v>
+        <v>129.5146718830094</v>
       </c>
       <c r="E35" t="n">
-        <v>44.92694715363748</v>
+        <v>45.47722480309881</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23.71</v>
+        <v>23.9805</v>
       </c>
       <c r="D36" t="n">
-        <v>125.5883027419431</v>
+        <v>126.1650703526073</v>
       </c>
       <c r="E36" t="n">
-        <v>46.3983833915208</v>
+        <v>44.66551955473342</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>21.36</v>
+        <v>21.791</v>
       </c>
       <c r="D37" t="n">
-        <v>128.0261007619868</v>
+        <v>127.5212833376179</v>
       </c>
       <c r="E37" t="n">
-        <v>45.66381823750562</v>
+        <v>46.45274616563028</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>18.838</v>
+        <v>18.522</v>
       </c>
       <c r="D38" t="n">
-        <v>125.1747581775322</v>
+        <v>128.8183493095783</v>
       </c>
       <c r="E38" t="n">
-        <v>42.54482473575154</v>
+        <v>46.04668986085086</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20.412</v>
+        <v>20.5665</v>
       </c>
       <c r="D39" t="n">
-        <v>125.7701540234484</v>
+        <v>130.1464545179676</v>
       </c>
       <c r="E39" t="n">
-        <v>48.58703283327011</v>
+        <v>46.80994899562068</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19.186</v>
+        <v>19.12</v>
       </c>
       <c r="D40" t="n">
-        <v>132.0038391826423</v>
+        <v>132.8022564269794</v>
       </c>
       <c r="E40" t="n">
-        <v>49.84099766371592</v>
+        <v>45.65242765311064</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>12.608</v>
+        <v>12.761</v>
       </c>
       <c r="D41" t="n">
-        <v>124.6828519094612</v>
+        <v>126.9346905201031</v>
       </c>
       <c r="E41" t="n">
-        <v>44.91811557596319</v>
+        <v>45.45805696369475</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22.52</v>
+        <v>22.897</v>
       </c>
       <c r="D42" t="n">
-        <v>115.3569201103519</v>
+        <v>121.8479972049839</v>
       </c>
       <c r="E42" t="n">
-        <v>41.39683575593855</v>
+        <v>44.46623832995339</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>14.91</v>
+        <v>14.684</v>
       </c>
       <c r="D43" t="n">
-        <v>120.1990176230942</v>
+        <v>121.9209477417969</v>
       </c>
       <c r="E43" t="n">
-        <v>41.57770000859578</v>
+        <v>42.85204791765769</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>16.438</v>
+        <v>16.745</v>
       </c>
       <c r="D44" t="n">
-        <v>123.7369399260862</v>
+        <v>126.7826437681993</v>
       </c>
       <c r="E44" t="n">
-        <v>41.33793872958308</v>
+        <v>45.62170559648573</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17.844</v>
+        <v>17.493</v>
       </c>
       <c r="D45" t="n">
-        <v>125.3943432924589</v>
+        <v>129.2702692154069</v>
       </c>
       <c r="E45" t="n">
-        <v>44.47834405824249</v>
+        <v>45.73744527357551</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>13.306</v>
+        <v>13.154</v>
       </c>
       <c r="D46" t="n">
-        <v>127.637077095591</v>
+        <v>129.7507060298099</v>
       </c>
       <c r="E46" t="n">
-        <v>42.92643257155642</v>
+        <v>44.94361927645116</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>13.472</v>
+        <v>13.463</v>
       </c>
       <c r="D47" t="n">
-        <v>134.0428715144505</v>
+        <v>128.669599249033</v>
       </c>
       <c r="E47" t="n">
-        <v>47.63411618481275</v>
+        <v>48.16052314588385</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>11.876</v>
+        <v>11.6925</v>
       </c>
       <c r="D48" t="n">
-        <v>138.1443929965131</v>
+        <v>131.5219984139524</v>
       </c>
       <c r="E48" t="n">
-        <v>47.04661321650485</v>
+        <v>46.7048952195894</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>14.324</v>
+        <v>14.402</v>
       </c>
       <c r="D49" t="n">
-        <v>129.6480503822865</v>
+        <v>134.0052832771006</v>
       </c>
       <c r="E49" t="n">
-        <v>48.60715711381141</v>
+        <v>48.08701064732335</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15.602</v>
+        <v>15.294</v>
       </c>
       <c r="D50" t="n">
-        <v>127.1977112764244</v>
+        <v>130.470306959048</v>
       </c>
       <c r="E50" t="n">
-        <v>43.57200030138915</v>
+        <v>45.75350552308969</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13.534</v>
+        <v>13.6495</v>
       </c>
       <c r="D51" t="n">
-        <v>125.6181730006033</v>
+        <v>123.8997396842822</v>
       </c>
       <c r="E51" t="n">
-        <v>42.63781464493537</v>
+        <v>43.1241971729767</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>11.648</v>
+        <v>11.6275</v>
       </c>
       <c r="D52" t="n">
-        <v>128.675369960277</v>
+        <v>121.4561523155318</v>
       </c>
       <c r="E52" t="n">
-        <v>48.31472081410159</v>
+        <v>42.47156022642791</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10.346</v>
+        <v>10.3285</v>
       </c>
       <c r="D53" t="n">
-        <v>129.9141171178322</v>
+        <v>129.2325811873023</v>
       </c>
       <c r="E53" t="n">
-        <v>47.1524626474317</v>
+        <v>46.18397254834938</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7.138</v>
+        <v>6.926426426426427</v>
       </c>
       <c r="D54" t="n">
-        <v>140.0979936729936</v>
+        <v>130.3876103712703</v>
       </c>
       <c r="E54" t="n">
-        <v>47.89498001998</v>
+        <v>46.69608489052933</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6.926</v>
+        <v>7.014514514514515</v>
       </c>
       <c r="D55" t="n">
-        <v>121.4785603285602</v>
+        <v>126.650704836979</v>
       </c>
       <c r="E55" t="n">
-        <v>46.11858696858695</v>
+        <v>46.18974431065933</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>10.766</v>
+        <v>10.8675</v>
       </c>
       <c r="D56" t="n">
-        <v>135.0467608037704</v>
+        <v>114.630853245911</v>
       </c>
       <c r="E56" t="n">
-        <v>45.98044801177791</v>
+        <v>41.46766391374354</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15.334</v>
+        <v>15.0375</v>
       </c>
       <c r="D57" t="n">
-        <v>134.6109727512433</v>
+        <v>124.1901014204192</v>
       </c>
       <c r="E57" t="n">
-        <v>45.8286835632622</v>
+        <v>45.42341501370421</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>13.222</v>
+        <v>13.486</v>
       </c>
       <c r="D58" t="n">
-        <v>125.875289243892</v>
+        <v>122.8245290412138</v>
       </c>
       <c r="E58" t="n">
-        <v>45.35437966708663</v>
+        <v>43.84582638803187</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>12.662</v>
+        <v>12.3355</v>
       </c>
       <c r="D59" t="n">
-        <v>112.0651626151626</v>
+        <v>116.7412285000534</v>
       </c>
       <c r="E59" t="n">
-        <v>36.17766684639746</v>
+        <v>42.80380153528282</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19.08</v>
+        <v>18.971</v>
       </c>
       <c r="D60" t="n">
-        <v>122.1841260640534</v>
+        <v>121.325038705538</v>
       </c>
       <c r="E60" t="n">
-        <v>45.98228491687002</v>
+        <v>43.23173300808482</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.651999999999999</v>
+        <v>8.764382191095548</v>
       </c>
       <c r="D61" t="n">
-        <v>126.0037830590461</v>
+        <v>123.8635880217697</v>
       </c>
       <c r="E61" t="n">
-        <v>45.60757020757017</v>
+        <v>46.67791040499448</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7.086</v>
+        <v>7.029</v>
       </c>
       <c r="D62" t="n">
-        <v>135.1202090307353</v>
+        <v>129.3507527195024</v>
       </c>
       <c r="E62" t="n">
-        <v>50.12474367737524</v>
+        <v>48.11335470085466</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>10.584</v>
+        <v>10.459</v>
       </c>
       <c r="D63" t="n">
-        <v>127.7274540990484</v>
+        <v>128.731006449709</v>
       </c>
       <c r="E63" t="n">
-        <v>47.70943859202369</v>
+        <v>46.76368343698815</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20.686</v>
+        <v>20.6605</v>
       </c>
       <c r="D64" t="n">
-        <v>117.8459740197815</v>
+        <v>123.7389017037715</v>
       </c>
       <c r="E64" t="n">
-        <v>40.27179856369624</v>
+        <v>44.57766923352391</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>11.334</v>
+        <v>10.9765</v>
       </c>
       <c r="D65" t="n">
-        <v>119.6655490708122</v>
+        <v>126.4123105867298</v>
       </c>
       <c r="E65" t="n">
-        <v>43.91344713078458</v>
+        <v>45.53915532352055</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>12.36</v>
+        <v>12.4945</v>
       </c>
       <c r="D66" t="n">
-        <v>132.9402700240935</v>
+        <v>129.1694093509875</v>
       </c>
       <c r="E66" t="n">
-        <v>47.69902546713688</v>
+        <v>43.97743662062121</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.066265060240964</v>
+        <v>8.045500000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>126.5631481825203</v>
+        <v>127.0651827833327</v>
       </c>
       <c r="E67" t="n">
-        <v>44.52811802209389</v>
+        <v>43.0800405068787</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6.016064257028113</v>
+        <v>6.02061337355455</v>
       </c>
       <c r="D68" t="n">
-        <v>127.0139666224004</v>
+        <v>125.4931552442863</v>
       </c>
       <c r="E68" t="n">
-        <v>55.50327628640878</v>
+        <v>46.19885588965531</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7.6</v>
+        <v>7.5235</v>
       </c>
       <c r="D69" t="n">
-        <v>124.3577450327449</v>
+        <v>132.0353925078189</v>
       </c>
       <c r="E69" t="n">
-        <v>44.2455155955156</v>
+        <v>45.51286511690922</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>14.438</v>
+        <v>14.274</v>
       </c>
       <c r="D70" t="n">
-        <v>135.8316221707977</v>
+        <v>128.5878117482884</v>
       </c>
       <c r="E70" t="n">
-        <v>47.99352510312057</v>
+        <v>45.93682618469701</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25.614</v>
+        <v>25.866</v>
       </c>
       <c r="D71" t="n">
-        <v>125.203200717401</v>
+        <v>127.741185777327</v>
       </c>
       <c r="E71" t="n">
-        <v>45.97383711454432</v>
+        <v>45.29757225855265</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7.16</v>
+        <v>7.1895</v>
       </c>
       <c r="D72" t="n">
-        <v>121.5028665778665</v>
+        <v>127.0766802641799</v>
       </c>
       <c r="E72" t="n">
-        <v>43.84612609612609</v>
+        <v>43.83072483072482</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7.01</v>
+        <v>6.96946946946947</v>
       </c>
       <c r="D73" t="n">
-        <v>132.9585192585192</v>
+        <v>120.2138815292409</v>
       </c>
       <c r="E73" t="n">
-        <v>45.46873126873125</v>
+        <v>44.28925609481164</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7.856</v>
+        <v>7.937</v>
       </c>
       <c r="D74" t="n">
-        <v>125.6575174825174</v>
+        <v>126.8535164891006</v>
       </c>
       <c r="E74" t="n">
-        <v>44.20414585414584</v>
+        <v>47.08999369653391</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7.708</v>
+        <v>7.823411705852926</v>
       </c>
       <c r="D75" t="n">
-        <v>133.5920218670218</v>
+        <v>131.9792714089706</v>
       </c>
       <c r="E75" t="n">
-        <v>50.95408757908753</v>
+        <v>46.72550356332646</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10.292</v>
+        <v>10.118</v>
       </c>
       <c r="D76" t="n">
-        <v>122.9414532749672</v>
+        <v>129.2420426565699</v>
       </c>
       <c r="E76" t="n">
-        <v>46.36539979628215</v>
+        <v>46.33790926276195</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8.056112224448897</v>
+        <v>7.719859929964983</v>
       </c>
       <c r="D77" t="n">
-        <v>126.2520653537981</v>
+        <v>120.7928963012384</v>
       </c>
       <c r="E77" t="n">
-        <v>44.03859137443951</v>
+        <v>45.26989691851533</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>16.6</v>
+        <v>16.5335</v>
       </c>
       <c r="D78" t="n">
-        <v>122.6489761278269</v>
+        <v>126.1277279642244</v>
       </c>
       <c r="E78" t="n">
-        <v>44.27714553993532</v>
+        <v>46.1446545226325</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>16.436</v>
+        <v>16.54</v>
       </c>
       <c r="D79" t="n">
-        <v>120.8660084948778</v>
+        <v>126.5544665236122</v>
       </c>
       <c r="E79" t="n">
-        <v>43.55706373869719</v>
+        <v>45.08473711454</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>14.18</v>
+        <v>14.5085</v>
       </c>
       <c r="D80" t="n">
-        <v>129.7533091186046</v>
+        <v>124.3770593341352</v>
       </c>
       <c r="E80" t="n">
-        <v>43.9908039351504</v>
+        <v>43.20795366916895</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>23.696</v>
+        <v>23.598</v>
       </c>
       <c r="D81" t="n">
-        <v>123.9549826715465</v>
+        <v>122.5636442493042</v>
       </c>
       <c r="E81" t="n">
-        <v>44.77523750614001</v>
+        <v>44.18208509630079</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>26.53</v>
+        <v>26.5085</v>
       </c>
       <c r="D82" t="n">
-        <v>120.1711261508253</v>
+        <v>120.63136665423</v>
       </c>
       <c r="E82" t="n">
-        <v>44.11601141828576</v>
+        <v>42.9280027035755</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>13.716</v>
+        <v>13.9365</v>
       </c>
       <c r="D83" t="n">
-        <v>132.0632020462301</v>
+        <v>124.8470269011049</v>
       </c>
       <c r="E83" t="n">
-        <v>44.65667216945718</v>
+        <v>43.11978865447751</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>21.168</v>
+        <v>21.024</v>
       </c>
       <c r="D84" t="n">
-        <v>127.0945305581339</v>
+        <v>127.5839427738358</v>
       </c>
       <c r="E84" t="n">
-        <v>42.38744662053396</v>
+        <v>46.30212040548045</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>15.168</v>
+        <v>15.0915</v>
       </c>
       <c r="D85" t="n">
-        <v>126.2633694875738</v>
+        <v>127.9914735997684</v>
       </c>
       <c r="E85" t="n">
-        <v>46.11933640421268</v>
+        <v>47.25187174196845</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>14.81</v>
+        <v>14.8785</v>
       </c>
       <c r="D86" t="n">
-        <v>136.2240570880489</v>
+        <v>129.9134516446246</v>
       </c>
       <c r="E86" t="n">
-        <v>47.12042635958438</v>
+        <v>44.73113815458203</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>15.446</v>
+        <v>15.596</v>
       </c>
       <c r="D87" t="n">
-        <v>131.4503229205878</v>
+        <v>129.6661384892656</v>
       </c>
       <c r="E87" t="n">
-        <v>44.86930200580056</v>
+        <v>46.97657717745316</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>19.612</v>
+        <v>19.7665</v>
       </c>
       <c r="D88" t="n">
-        <v>116.7584726640631</v>
+        <v>112.2833459531465</v>
       </c>
       <c r="E88" t="n">
-        <v>42.21785481980501</v>
+        <v>40.63064326304643</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>13.28</v>
+        <v>13.227</v>
       </c>
       <c r="D89" t="n">
-        <v>112.9114116010671</v>
+        <v>112.1002795156938</v>
       </c>
       <c r="E89" t="n">
-        <v>39.80981956303667</v>
+        <v>39.81986263986532</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>16.862</v>
+        <v>16.8305</v>
       </c>
       <c r="D90" t="n">
-        <v>120.21998221272</v>
+        <v>121.3895949443436</v>
       </c>
       <c r="E90" t="n">
-        <v>45.7364037392634</v>
+        <v>44.1763766464501</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>14.604</v>
+        <v>14.679</v>
       </c>
       <c r="D91" t="n">
-        <v>122.8999931677929</v>
+        <v>124.0033817611844</v>
       </c>
       <c r="E91" t="n">
-        <v>40.90431148658705</v>
+        <v>44.00771472826289</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>20.3</v>
+        <v>20.312</v>
       </c>
       <c r="D92" t="n">
-        <v>125.8722472477206</v>
+        <v>126.1411271220448</v>
       </c>
       <c r="E92" t="n">
-        <v>46.27366377669723</v>
+        <v>43.94535142987371</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>14.964</v>
+        <v>14.982</v>
       </c>
       <c r="D93" t="n">
-        <v>131.3776811823554</v>
+        <v>132.2561719079406</v>
       </c>
       <c r="E93" t="n">
-        <v>43.7250472256738</v>
+        <v>47.49528456700314</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>15.826</v>
+        <v>16.193</v>
       </c>
       <c r="D94" t="n">
-        <v>127.3766529158508</v>
+        <v>126.7968348689772</v>
       </c>
       <c r="E94" t="n">
-        <v>45.34848198427429</v>
+        <v>46.78739642552719</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>13.612</v>
+        <v>13.82</v>
       </c>
       <c r="D95" t="n">
-        <v>133.7507740210762</v>
+        <v>131.1514928234943</v>
       </c>
       <c r="E95" t="n">
-        <v>51.35288325328371</v>
+        <v>46.75987955194889</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>21.64</v>
+        <v>21.7585</v>
       </c>
       <c r="D96" t="n">
-        <v>123.067572891638</v>
+        <v>127.4643369239679</v>
       </c>
       <c r="E96" t="n">
-        <v>44.0960868057128</v>
+        <v>45.48007128949829</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>13.464</v>
+        <v>13.264</v>
       </c>
       <c r="D97" t="n">
-        <v>123.9023169684894</v>
+        <v>120.2934712350771</v>
       </c>
       <c r="E97" t="n">
-        <v>43.79857991771166</v>
+        <v>44.19166408930192</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>18.082</v>
+        <v>17.8155</v>
       </c>
       <c r="D98" t="n">
-        <v>123.4278497066858</v>
+        <v>123.6321959419759</v>
       </c>
       <c r="E98" t="n">
-        <v>45.52292913718224</v>
+        <v>43.96118215075941</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>20.57</v>
+        <v>20.3495</v>
       </c>
       <c r="D99" t="n">
-        <v>119.2010206599246</v>
+        <v>119.3097879536246</v>
       </c>
       <c r="E99" t="n">
-        <v>41.30010087265975</v>
+        <v>44.17867606424392</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>20.366</v>
+        <v>20.481</v>
       </c>
       <c r="D100" t="n">
-        <v>123.9009600313214</v>
+        <v>130.8127628938641</v>
       </c>
       <c r="E100" t="n">
-        <v>45.50848329502769</v>
+        <v>46.71343449037996</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>24.838</v>
+        <v>25.272</v>
       </c>
       <c r="D101" t="n">
-        <v>125.5202367391719</v>
+        <v>123.9484294354493</v>
       </c>
       <c r="E101" t="n">
-        <v>47.48730256676944</v>
+        <v>44.22161410871625</v>
       </c>
     </row>
     <row r="102">
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>25.796</v>
+        <v>25.4745</v>
       </c>
       <c r="D102" t="n">
-        <v>119.4040132153814</v>
+        <v>127.4253061415686</v>
       </c>
       <c r="E102" t="n">
-        <v>43.71604104164183</v>
+        <v>44.40175466075984</v>
       </c>
     </row>
     <row r="103">
@@ -2384,13 +2384,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>13.208</v>
+        <v>13.3855</v>
       </c>
       <c r="D103" t="n">
-        <v>125.6874482235433</v>
+        <v>130.3469342330205</v>
       </c>
       <c r="E103" t="n">
-        <v>46.17305627211064</v>
+        <v>47.4749954752027</v>
       </c>
     </row>
     <row r="104">
@@ -2403,13 +2403,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>17.494</v>
+        <v>17.477</v>
       </c>
       <c r="D104" t="n">
-        <v>132.976340869064</v>
+        <v>128.9836963402206</v>
       </c>
       <c r="E104" t="n">
-        <v>46.25621214976271</v>
+        <v>47.27883223381925</v>
       </c>
     </row>
     <row r="105">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>27.094</v>
+        <v>26.6485</v>
       </c>
       <c r="D105" t="n">
-        <v>124.5344018707134</v>
+        <v>125.6274576841392</v>
       </c>
       <c r="E105" t="n">
-        <v>46.46365386426288</v>
+        <v>43.15911702770002</v>
       </c>
     </row>
     <row r="106">
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>29.034</v>
+        <v>28.989</v>
       </c>
       <c r="D106" t="n">
-        <v>130.097596580898</v>
+        <v>125.179143541082</v>
       </c>
       <c r="E106" t="n">
-        <v>46.32858077287074</v>
+        <v>44.30393601496417</v>
       </c>
     </row>
     <row r="107">
@@ -2460,13 +2460,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>15.2</v>
+        <v>15.009</v>
       </c>
       <c r="D107" t="n">
-        <v>121.5440765652389</v>
+        <v>126.1181743638509</v>
       </c>
       <c r="E107" t="n">
-        <v>47.47640780267377</v>
+        <v>45.31775205835118</v>
       </c>
     </row>
     <row r="108">
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>19.836</v>
+        <v>19.9125</v>
       </c>
       <c r="D108" t="n">
-        <v>131.6428676926425</v>
+        <v>127.1956170957129</v>
       </c>
       <c r="E108" t="n">
-        <v>46.42049676679788</v>
+        <v>45.21369954159642</v>
       </c>
     </row>
     <row r="109">
@@ -2498,13 +2498,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>17.806</v>
+        <v>17.9625</v>
       </c>
       <c r="D109" t="n">
-        <v>151.8708081349457</v>
+        <v>147.9949421311501</v>
       </c>
       <c r="E109" t="n">
-        <v>56.6410305511133</v>
+        <v>51.86410075010371</v>
       </c>
     </row>
     <row r="110">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>23.358</v>
+        <v>22.883</v>
       </c>
       <c r="D110" t="n">
-        <v>128.7236954465658</v>
+        <v>128.9179550539348</v>
       </c>
       <c r="E110" t="n">
-        <v>43.63730677311193</v>
+        <v>45.55674412892041</v>
       </c>
     </row>
     <row r="111">
@@ -2536,13 +2536,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>19.694</v>
+        <v>19.727</v>
       </c>
       <c r="D111" t="n">
-        <v>109.8229092403555</v>
+        <v>121.4748164045033</v>
       </c>
       <c r="E111" t="n">
-        <v>38.41663310964277</v>
+        <v>43.36813339860566</v>
       </c>
     </row>
     <row r="112">
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>24.692</v>
+        <v>24.7625</v>
       </c>
       <c r="D112" t="n">
-        <v>119.1239751366408</v>
+        <v>117.0944783767474</v>
       </c>
       <c r="E112" t="n">
-        <v>40.37035934701603</v>
+        <v>41.9967559698696</v>
       </c>
     </row>
     <row r="113">
@@ -2574,13 +2574,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>16.826</v>
+        <v>16.58</v>
       </c>
       <c r="D113" t="n">
-        <v>112.1169515769009</v>
+        <v>123.9973874877771</v>
       </c>
       <c r="E113" t="n">
-        <v>43.83550180391327</v>
+        <v>44.19497011580872</v>
       </c>
     </row>
     <row r="114">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>16.476</v>
+        <v>16.5235</v>
       </c>
       <c r="D114" t="n">
-        <v>124.6542565834597</v>
+        <v>126.7343884660657</v>
       </c>
       <c r="E114" t="n">
-        <v>44.20341500781465</v>
+        <v>45.18231619522589</v>
       </c>
     </row>
     <row r="115">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>19.968</v>
+        <v>19.7</v>
       </c>
       <c r="D115" t="n">
-        <v>120.9019380950355</v>
+        <v>126.2139228878769</v>
       </c>
       <c r="E115" t="n">
-        <v>41.82546609277443</v>
+        <v>44.55591625209859</v>
       </c>
     </row>
     <row r="116">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>12.738</v>
+        <v>12.809</v>
       </c>
       <c r="D116" t="n">
-        <v>128.6270901467327</v>
+        <v>128.1251274412643</v>
       </c>
       <c r="E116" t="n">
-        <v>46.77634548973556</v>
+        <v>44.89084887432</v>
       </c>
     </row>
     <row r="117">
@@ -2650,13 +2650,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>21.302</v>
+        <v>21.3765</v>
       </c>
       <c r="D117" t="n">
-        <v>126.9983107413824</v>
+        <v>128.6489220521939</v>
       </c>
       <c r="E117" t="n">
-        <v>44.45630128714046</v>
+        <v>45.67041408650556</v>
       </c>
     </row>
     <row r="118">
@@ -2669,13 +2669,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>18.004</v>
+        <v>18.144</v>
       </c>
       <c r="D118" t="n">
-        <v>127.2562279072952</v>
+        <v>125.2472957834682</v>
       </c>
       <c r="E118" t="n">
-        <v>45.6330543667354</v>
+        <v>45.11751597779981</v>
       </c>
     </row>
     <row r="119">
@@ -2688,13 +2688,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>14.202</v>
+        <v>14.0655</v>
       </c>
       <c r="D119" t="n">
-        <v>121.0168529254206</v>
+        <v>126.7210974336432</v>
       </c>
       <c r="E119" t="n">
-        <v>42.03315414771733</v>
+        <v>44.27757149653907</v>
       </c>
     </row>
     <row r="120">
@@ -2707,13 +2707,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>7.006</v>
+        <v>7.119059529764883</v>
       </c>
       <c r="D120" t="n">
-        <v>129.119325119325</v>
+        <v>124.6391059610165</v>
       </c>
       <c r="E120" t="n">
-        <v>42.59444444444441</v>
+        <v>43.39085265798622</v>
       </c>
     </row>
     <row r="121">
@@ -2726,13 +2726,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8.635999999999999</v>
+        <v>8.530265132566283</v>
       </c>
       <c r="D121" t="n">
-        <v>127.1872493863205</v>
+        <v>139.0617255145104</v>
       </c>
       <c r="E121" t="n">
-        <v>45.36474987001302</v>
+        <v>46.39239795310473</v>
       </c>
     </row>
     <row r="122">
@@ -2745,13 +2745,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8.554</v>
+        <v>8.707000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>132.2633200133199</v>
+        <v>134.7255605076037</v>
       </c>
       <c r="E122" t="n">
-        <v>42.50129037629036</v>
+        <v>51.87794067602499</v>
       </c>
     </row>
     <row r="123">
@@ -2764,13 +2764,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>9.446</v>
+        <v>9.522500000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>128.5472061821906</v>
+        <v>133.849940789774</v>
       </c>
       <c r="E123" t="n">
-        <v>44.4500305250305</v>
+        <v>47.89639686594789</v>
       </c>
     </row>
     <row r="124">
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>13.788</v>
+        <v>13.454</v>
       </c>
       <c r="D124" t="n">
-        <v>140.8713234161182</v>
+        <v>134.3126254992172</v>
       </c>
       <c r="E124" t="n">
-        <v>49.01047139135372</v>
+        <v>47.71511252903949</v>
       </c>
     </row>
   </sheetData>

--- a/VIDA2/data/RECIFE.xlsx
+++ b/VIDA2/data/RECIFE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
